--- a/src/data/J1BNFE.xlsx
+++ b/src/data/J1BNFE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="1120">
   <si>
     <t>Nº documento</t>
   </si>
@@ -694,6 +694,27 @@
     <t>5733</t>
   </si>
   <si>
+    <t>9972</t>
+  </si>
+  <si>
+    <t>10494</t>
+  </si>
+  <si>
+    <t>10542</t>
+  </si>
+  <si>
+    <t>10538</t>
+  </si>
+  <si>
+    <t>10601</t>
+  </si>
+  <si>
+    <t>10617</t>
+  </si>
+  <si>
+    <t>10618</t>
+  </si>
+  <si>
     <t>5739</t>
   </si>
   <si>
@@ -1075,12 +1096,6 @@
     <t>8474</t>
   </si>
   <si>
-    <t>9972</t>
-  </si>
-  <si>
-    <t>10494</t>
-  </si>
-  <si>
     <t>8546</t>
   </si>
   <si>
@@ -1741,6 +1756,21 @@
     <t>000000157</t>
   </si>
   <si>
+    <t>000000278</t>
+  </si>
+  <si>
+    <t>000000292</t>
+  </si>
+  <si>
+    <t>000000293</t>
+  </si>
+  <si>
+    <t>000000294</t>
+  </si>
+  <si>
+    <t>000000295</t>
+  </si>
+  <si>
     <t>000000158</t>
   </si>
   <si>
@@ -1981,12 +2011,6 @@
     <t>000000240</t>
   </si>
   <si>
-    <t>000000278</t>
-  </si>
-  <si>
-    <t>000000292</t>
-  </si>
-  <si>
     <t>000000241</t>
   </si>
   <si>
@@ -2185,6 +2209,9 @@
     <t>2026-02-13 00:00:00</t>
   </si>
   <si>
+    <t>2026-02-23 00:00:00</t>
+  </si>
+  <si>
     <t>2026-02-14 00:00:00</t>
   </si>
   <si>
@@ -2203,9 +2230,6 @@
     <t>2026-02-19 00:00:00</t>
   </si>
   <si>
-    <t>2026-02-23 00:00:00</t>
-  </si>
-  <si>
     <t>2026-02-20 00:00:00</t>
   </si>
   <si>
@@ -2845,6 +2869,24 @@
     <t>09:13:43</t>
   </si>
   <si>
+    <t>07:46:31</t>
+  </si>
+  <si>
+    <t>08:30:33</t>
+  </si>
+  <si>
+    <t>08:31:27</t>
+  </si>
+  <si>
+    <t>09:23:17</t>
+  </si>
+  <si>
+    <t>09:39:58</t>
+  </si>
+  <si>
+    <t>09:40:14</t>
+  </si>
+  <si>
     <t>09:18:56</t>
   </si>
   <si>
@@ -3152,9 +3194,6 @@
   </si>
   <si>
     <t>14:23:04</t>
-  </si>
-  <si>
-    <t>07:46:31</t>
   </si>
   <si>
     <t>15:09:35</t>
@@ -3692,7 +3731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H414"/>
+  <dimension ref="A1:H419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3729,16 +3768,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E2" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G2" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H2" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3746,16 +3785,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E3" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G3" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H3" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3763,25 +3802,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D4" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E4" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F4" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G4" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H4" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3789,25 +3828,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D5" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E5" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F5" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G5" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="H5" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3815,25 +3854,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E6" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F6" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="G6" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H6" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3841,25 +3880,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F7" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="G7" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H7" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3867,25 +3906,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D8" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E8" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F8" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G8" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H8" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3893,16 +3932,16 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="E9" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G9" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H9" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3910,25 +3949,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C10" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E10" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="F10" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G10" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H10" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3936,16 +3975,16 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E11" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G11" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H11" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3953,16 +3992,16 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E12" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G12" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H12" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3970,16 +4009,16 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E13" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G13" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H13" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3987,16 +4026,16 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E14" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G14" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="H14" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4004,19 +4043,19 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D15" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E15" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G15" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H15" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4024,16 +4063,16 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E16" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G16" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H16" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4041,16 +4080,16 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G17" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="H17" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4058,16 +4097,16 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E18" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G18" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H18" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4075,16 +4114,16 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E19" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G19" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H19" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4092,16 +4131,16 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E20" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G20" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="H20" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4109,16 +4148,16 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E21" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G21" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H21" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4126,16 +4165,16 @@
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E22" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G22" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="H22" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4143,16 +4182,16 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="E23" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G23" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H23" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4160,16 +4199,16 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="E24" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G24" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H24" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4177,16 +4216,16 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E25" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G25" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H25" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4194,16 +4233,16 @@
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E26" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G26" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H26" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4211,16 +4250,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E27" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G27" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H27" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4228,16 +4267,16 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E28" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G28" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H28" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4245,16 +4284,16 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E29" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="G29" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H29" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4262,16 +4301,16 @@
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="E30" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G30" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H30" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4279,16 +4318,16 @@
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E31" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G31" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H31" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4296,16 +4335,16 @@
         <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E32" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G32" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H32" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4313,16 +4352,16 @@
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E33" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G33" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H33" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4330,16 +4369,16 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E34" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G34" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H34" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4347,25 +4386,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C35" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D35" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E35" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="F35" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G35" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H35" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -4373,25 +4412,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C36" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D36" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E36" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="F36" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G36" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H36" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -4399,16 +4438,16 @@
         <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E37" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G37" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H37" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4416,16 +4455,16 @@
         <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="E38" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G38" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H38" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -4433,16 +4472,16 @@
         <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="E39" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G39" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H39" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4450,16 +4489,16 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E40" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G40" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H40" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4467,16 +4506,16 @@
         <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E41" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G41" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H41" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -4484,16 +4523,16 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E42" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G42" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H42" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4501,25 +4540,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C43" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D43" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E43" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="F43" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G43" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H43" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4527,16 +4566,16 @@
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E44" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G44" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H44" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4544,16 +4583,16 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E45" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G45" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H45" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4561,16 +4600,16 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E46" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G46" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H46" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4578,16 +4617,16 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E47" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G47" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H47" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4595,16 +4634,16 @@
         <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="E48" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G48" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H48" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4612,16 +4651,16 @@
         <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E49" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G49" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H49" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4629,16 +4668,16 @@
         <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E50" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G50" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H50" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4646,16 +4685,16 @@
         <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E51" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G51" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H51" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4663,16 +4702,16 @@
         <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E52" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G52" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H52" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4680,16 +4719,16 @@
         <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="E53" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G53" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H53" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4697,16 +4736,16 @@
         <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="E54" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G54" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H54" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4714,16 +4753,16 @@
         <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E55" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G55" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H55" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4731,16 +4770,16 @@
         <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="E56" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G56" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H56" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4748,16 +4787,16 @@
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E57" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G57" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H57" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4765,16 +4804,16 @@
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E58" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G58" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H58" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4782,16 +4821,16 @@
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E59" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G59" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H59" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4799,16 +4838,16 @@
         <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="E60" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G60" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H60" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4816,16 +4855,16 @@
         <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E61" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G61" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H61" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4833,16 +4872,16 @@
         <v>68</v>
       </c>
       <c r="D62" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E62" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G62" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H62" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4850,25 +4889,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C63" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D63" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E63" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="F63" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G63" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H63" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4876,16 +4915,16 @@
         <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E64" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G64" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H64" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4893,16 +4932,16 @@
         <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E65" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G65" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H65" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4910,16 +4949,16 @@
         <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E66" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G66" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H66" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4927,16 +4966,16 @@
         <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E67" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G67" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H67" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4944,16 +4983,16 @@
         <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E68" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G68" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H68" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4961,16 +5000,16 @@
         <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="E69" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G69" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H69" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4978,16 +5017,16 @@
         <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="E70" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G70" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H70" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4995,16 +5034,16 @@
         <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E71" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G71" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H71" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5012,16 +5051,16 @@
         <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E72" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G72" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H72" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5029,25 +5068,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C73" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D73" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E73" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="F73" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G73" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H73" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5055,16 +5094,16 @@
         <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E74" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G74" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H74" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -5072,25 +5111,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C75" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D75" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E75" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="F75" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G75" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H75" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5098,16 +5137,16 @@
         <v>82</v>
       </c>
       <c r="D76" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="E76" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G76" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H76" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -5115,16 +5154,16 @@
         <v>83</v>
       </c>
       <c r="D77" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E77" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G77" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H77" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5132,16 +5171,16 @@
         <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E78" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G78" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H78" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -5149,16 +5188,16 @@
         <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E79" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G79" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H79" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -5166,16 +5205,16 @@
         <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E80" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G80" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H80" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -5183,16 +5222,16 @@
         <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E81" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G81" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H81" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5200,16 +5239,16 @@
         <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="E82" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G82" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H82" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5217,16 +5256,16 @@
         <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="E83" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G83" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H83" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -5234,16 +5273,16 @@
         <v>90</v>
       </c>
       <c r="D84" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E84" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G84" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H84" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -5251,16 +5290,16 @@
         <v>91</v>
       </c>
       <c r="D85" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="E85" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G85" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H85" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5268,16 +5307,16 @@
         <v>92</v>
       </c>
       <c r="D86" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E86" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G86" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H86" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5285,16 +5324,16 @@
         <v>93</v>
       </c>
       <c r="D87" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E87" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G87" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H87" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5302,16 +5341,16 @@
         <v>94</v>
       </c>
       <c r="D88" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E88" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G88" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H88" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5319,16 +5358,16 @@
         <v>95</v>
       </c>
       <c r="D89" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="E89" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G89" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H89" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5336,16 +5375,16 @@
         <v>96</v>
       </c>
       <c r="D90" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="E90" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G90" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H90" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5353,16 +5392,16 @@
         <v>97</v>
       </c>
       <c r="D91" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E91" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G91" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H91" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5370,19 +5409,19 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D92" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="E92" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G92" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H92" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5390,16 +5429,16 @@
         <v>99</v>
       </c>
       <c r="D93" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="E93" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G93" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H93" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5407,16 +5446,16 @@
         <v>100</v>
       </c>
       <c r="D94" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E94" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G94" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H94" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5424,16 +5463,16 @@
         <v>101</v>
       </c>
       <c r="D95" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="E95" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G95" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H95" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5441,16 +5480,16 @@
         <v>102</v>
       </c>
       <c r="D96" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E96" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G96" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H96" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5458,16 +5497,16 @@
         <v>103</v>
       </c>
       <c r="D97" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="E97" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G97" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H97" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5475,16 +5514,16 @@
         <v>104</v>
       </c>
       <c r="D98" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="E98" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G98" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H98" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5492,16 +5531,16 @@
         <v>105</v>
       </c>
       <c r="D99" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E99" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G99" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H99" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5509,16 +5548,16 @@
         <v>106</v>
       </c>
       <c r="D100" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="E100" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G100" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H100" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5526,16 +5565,16 @@
         <v>107</v>
       </c>
       <c r="D101" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="E101" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G101" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H101" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5543,16 +5582,16 @@
         <v>108</v>
       </c>
       <c r="D102" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="E102" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G102" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H102" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5560,16 +5599,16 @@
         <v>109</v>
       </c>
       <c r="D103" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="E103" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G103" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H103" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5577,16 +5616,16 @@
         <v>110</v>
       </c>
       <c r="D104" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="E104" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G104" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H104" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5594,16 +5633,16 @@
         <v>111</v>
       </c>
       <c r="D105" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E105" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G105" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H105" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5611,16 +5650,16 @@
         <v>112</v>
       </c>
       <c r="D106" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="E106" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G106" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H106" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5628,16 +5667,16 @@
         <v>113</v>
       </c>
       <c r="D107" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="E107" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G107" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H107" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5645,25 +5684,25 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C108" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D108" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E108" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="F108" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G108" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H108" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5671,16 +5710,16 @@
         <v>115</v>
       </c>
       <c r="D109" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="E109" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G109" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H109" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5688,16 +5727,16 @@
         <v>116</v>
       </c>
       <c r="D110" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="E110" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G110" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H110" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5705,16 +5744,16 @@
         <v>117</v>
       </c>
       <c r="D111" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="E111" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G111" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H111" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5722,16 +5761,16 @@
         <v>118</v>
       </c>
       <c r="D112" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="E112" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G112" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H112" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5739,16 +5778,16 @@
         <v>119</v>
       </c>
       <c r="D113" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E113" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G113" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H113" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5756,16 +5795,16 @@
         <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="E114" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G114" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H114" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5773,16 +5812,16 @@
         <v>121</v>
       </c>
       <c r="D115" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="E115" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G115" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H115" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5790,16 +5829,16 @@
         <v>122</v>
       </c>
       <c r="D116" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="E116" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G116" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H116" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5807,16 +5846,16 @@
         <v>123</v>
       </c>
       <c r="D117" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="E117" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G117" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H117" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5824,16 +5863,16 @@
         <v>124</v>
       </c>
       <c r="D118" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E118" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G118" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H118" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5841,25 +5880,25 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C119" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D119" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E119" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="F119" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G119" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H119" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5867,16 +5906,16 @@
         <v>126</v>
       </c>
       <c r="D120" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E120" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G120" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H120" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5884,16 +5923,16 @@
         <v>127</v>
       </c>
       <c r="D121" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E121" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G121" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H121" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5901,16 +5940,16 @@
         <v>128</v>
       </c>
       <c r="D122" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="E122" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G122" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H122" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5918,16 +5957,16 @@
         <v>129</v>
       </c>
       <c r="D123" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="E123" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G123" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H123" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5935,16 +5974,16 @@
         <v>130</v>
       </c>
       <c r="D124" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E124" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G124" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H124" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5952,16 +5991,16 @@
         <v>131</v>
       </c>
       <c r="D125" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="E125" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G125" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H125" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5969,16 +6008,16 @@
         <v>132</v>
       </c>
       <c r="D126" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="E126" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G126" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H126" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5986,25 +6025,25 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C127" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D127" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E127" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="F127" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G127" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H127" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6012,16 +6051,16 @@
         <v>134</v>
       </c>
       <c r="D128" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E128" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G128" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H128" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6029,16 +6068,16 @@
         <v>135</v>
       </c>
       <c r="D129" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="E129" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="G129" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H129" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6046,16 +6085,16 @@
         <v>136</v>
       </c>
       <c r="D130" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="E130" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="G130" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H130" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6063,16 +6102,16 @@
         <v>137</v>
       </c>
       <c r="D131" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="E131" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G131" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H131" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6080,16 +6119,16 @@
         <v>138</v>
       </c>
       <c r="D132" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="E132" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G132" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H132" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6097,16 +6136,16 @@
         <v>139</v>
       </c>
       <c r="D133" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="E133" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G133" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H133" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6114,16 +6153,16 @@
         <v>140</v>
       </c>
       <c r="D134" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E134" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G134" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H134" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6131,16 +6170,16 @@
         <v>141</v>
       </c>
       <c r="D135" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E135" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G135" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H135" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6148,16 +6187,16 @@
         <v>142</v>
       </c>
       <c r="D136" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="E136" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G136" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H136" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6165,16 +6204,16 @@
         <v>143</v>
       </c>
       <c r="D137" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="E137" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G137" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H137" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6182,16 +6221,16 @@
         <v>144</v>
       </c>
       <c r="D138" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="E138" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G138" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H138" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6199,16 +6238,16 @@
         <v>145</v>
       </c>
       <c r="D139" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="E139" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G139" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H139" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6216,16 +6255,16 @@
         <v>146</v>
       </c>
       <c r="D140" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E140" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G140" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H140" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6233,16 +6272,16 @@
         <v>147</v>
       </c>
       <c r="D141" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="E141" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G141" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H141" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6250,16 +6289,16 @@
         <v>148</v>
       </c>
       <c r="D142" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="E142" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G142" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H142" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6267,16 +6306,16 @@
         <v>149</v>
       </c>
       <c r="D143" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="E143" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G143" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H143" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6284,16 +6323,16 @@
         <v>150</v>
       </c>
       <c r="D144" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="E144" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G144" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H144" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6301,16 +6340,16 @@
         <v>151</v>
       </c>
       <c r="D145" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="E145" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G145" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H145" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6318,16 +6357,16 @@
         <v>152</v>
       </c>
       <c r="D146" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="E146" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G146" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H146" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6335,16 +6374,16 @@
         <v>153</v>
       </c>
       <c r="D147" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="E147" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G147" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H147" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6352,16 +6391,16 @@
         <v>154</v>
       </c>
       <c r="D148" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E148" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G148" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H148" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6369,16 +6408,16 @@
         <v>155</v>
       </c>
       <c r="D149" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="E149" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G149" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H149" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6386,16 +6425,16 @@
         <v>156</v>
       </c>
       <c r="D150" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="E150" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G150" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H150" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6403,16 +6442,16 @@
         <v>157</v>
       </c>
       <c r="D151" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="E151" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G151" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H151" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6420,16 +6459,16 @@
         <v>158</v>
       </c>
       <c r="D152" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E152" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G152" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H152" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6437,16 +6476,16 @@
         <v>159</v>
       </c>
       <c r="D153" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E153" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G153" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H153" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6454,16 +6493,16 @@
         <v>160</v>
       </c>
       <c r="D154" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E154" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G154" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H154" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6471,16 +6510,16 @@
         <v>161</v>
       </c>
       <c r="D155" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="E155" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G155" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H155" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6488,16 +6527,16 @@
         <v>162</v>
       </c>
       <c r="D156" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="E156" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G156" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H156" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6505,16 +6544,16 @@
         <v>163</v>
       </c>
       <c r="D157" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="E157" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G157" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H157" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6522,16 +6561,16 @@
         <v>164</v>
       </c>
       <c r="D158" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E158" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G158" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H158" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6539,16 +6578,16 @@
         <v>165</v>
       </c>
       <c r="D159" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="E159" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G159" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H159" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6556,16 +6595,16 @@
         <v>166</v>
       </c>
       <c r="D160" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="E160" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G160" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H160" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6573,25 +6612,25 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C161" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D161" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="E161" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="F161" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G161" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H161" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6599,16 +6638,16 @@
         <v>168</v>
       </c>
       <c r="D162" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="E162" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G162" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H162" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6616,16 +6655,16 @@
         <v>169</v>
       </c>
       <c r="D163" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="E163" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G163" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H163" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6633,16 +6672,16 @@
         <v>170</v>
       </c>
       <c r="D164" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="E164" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G164" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H164" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6650,16 +6689,16 @@
         <v>171</v>
       </c>
       <c r="D165" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E165" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G165" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H165" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6667,16 +6706,16 @@
         <v>172</v>
       </c>
       <c r="D166" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E166" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G166" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H166" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6684,16 +6723,16 @@
         <v>173</v>
       </c>
       <c r="D167" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="E167" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G167" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H167" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6701,16 +6740,16 @@
         <v>174</v>
       </c>
       <c r="D168" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="E168" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G168" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H168" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6718,16 +6757,16 @@
         <v>175</v>
       </c>
       <c r="D169" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="E169" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G169" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H169" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6735,16 +6774,16 @@
         <v>176</v>
       </c>
       <c r="D170" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="E170" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G170" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H170" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6752,16 +6791,16 @@
         <v>177</v>
       </c>
       <c r="D171" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E171" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G171" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H171" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6769,16 +6808,16 @@
         <v>178</v>
       </c>
       <c r="D172" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="E172" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G172" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H172" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6786,25 +6825,25 @@
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C173" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D173" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="E173" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="F173" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="G173" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H173" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6812,16 +6851,16 @@
         <v>180</v>
       </c>
       <c r="D174" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="E174" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G174" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H174" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6829,16 +6868,16 @@
         <v>181</v>
       </c>
       <c r="D175" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E175" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G175" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H175" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6846,16 +6885,16 @@
         <v>182</v>
       </c>
       <c r="D176" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="E176" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G176" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H176" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6863,19 +6902,19 @@
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D177" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="E177" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G177" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="H177" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6883,16 +6922,16 @@
         <v>184</v>
       </c>
       <c r="D178" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="E178" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G178" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H178" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6900,16 +6939,16 @@
         <v>185</v>
       </c>
       <c r="D179" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="E179" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G179" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H179" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6917,16 +6956,16 @@
         <v>186</v>
       </c>
       <c r="D180" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E180" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G180" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H180" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6934,16 +6973,16 @@
         <v>187</v>
       </c>
       <c r="D181" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E181" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G181" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H181" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6951,16 +6990,16 @@
         <v>188</v>
       </c>
       <c r="D182" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E182" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G182" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H182" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6968,25 +7007,25 @@
         <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C183" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D183" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="E183" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="F183" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="G183" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H183" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6994,16 +7033,16 @@
         <v>190</v>
       </c>
       <c r="D184" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="E184" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G184" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H184" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7011,16 +7050,16 @@
         <v>191</v>
       </c>
       <c r="D185" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="E185" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G185" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H185" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7028,16 +7067,16 @@
         <v>192</v>
       </c>
       <c r="D186" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E186" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G186" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H186" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7045,16 +7084,16 @@
         <v>193</v>
       </c>
       <c r="D187" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E187" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G187" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H187" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7062,16 +7101,16 @@
         <v>194</v>
       </c>
       <c r="D188" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E188" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G188" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H188" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7079,16 +7118,16 @@
         <v>195</v>
       </c>
       <c r="D189" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="E189" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G189" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H189" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7096,16 +7135,16 @@
         <v>196</v>
       </c>
       <c r="D190" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="E190" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G190" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H190" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7113,16 +7152,16 @@
         <v>197</v>
       </c>
       <c r="D191" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E191" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G191" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H191" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7130,16 +7169,16 @@
         <v>198</v>
       </c>
       <c r="D192" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="E192" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G192" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H192" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7147,16 +7186,16 @@
         <v>199</v>
       </c>
       <c r="D193" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="E193" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G193" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H193" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7164,16 +7203,16 @@
         <v>200</v>
       </c>
       <c r="D194" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="E194" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G194" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H194" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7181,16 +7220,16 @@
         <v>201</v>
       </c>
       <c r="D195" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E195" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G195" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H195" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7198,16 +7237,16 @@
         <v>202</v>
       </c>
       <c r="D196" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E196" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G196" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H196" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7215,16 +7254,16 @@
         <v>203</v>
       </c>
       <c r="D197" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="E197" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G197" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H197" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7232,16 +7271,16 @@
         <v>204</v>
       </c>
       <c r="D198" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="E198" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G198" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H198" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7249,16 +7288,16 @@
         <v>205</v>
       </c>
       <c r="D199" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E199" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G199" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H199" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7266,16 +7305,16 @@
         <v>206</v>
       </c>
       <c r="D200" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E200" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G200" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H200" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7283,16 +7322,16 @@
         <v>207</v>
       </c>
       <c r="D201" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E201" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G201" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H201" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7300,16 +7339,16 @@
         <v>208</v>
       </c>
       <c r="D202" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E202" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G202" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H202" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7317,16 +7356,16 @@
         <v>209</v>
       </c>
       <c r="D203" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E203" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G203" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H203" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7334,16 +7373,16 @@
         <v>210</v>
       </c>
       <c r="D204" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E204" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G204" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H204" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7351,16 +7390,16 @@
         <v>211</v>
       </c>
       <c r="D205" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E205" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G205" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H205" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7368,16 +7407,16 @@
         <v>212</v>
       </c>
       <c r="D206" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E206" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G206" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H206" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7385,16 +7424,16 @@
         <v>213</v>
       </c>
       <c r="D207" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E207" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G207" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H207" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7402,16 +7441,16 @@
         <v>214</v>
       </c>
       <c r="D208" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E208" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G208" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H208" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7419,16 +7458,16 @@
         <v>215</v>
       </c>
       <c r="D209" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="E209" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G209" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H209" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7436,16 +7475,16 @@
         <v>216</v>
       </c>
       <c r="D210" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="E210" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G210" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H210" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7453,16 +7492,16 @@
         <v>217</v>
       </c>
       <c r="D211" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E211" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G211" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H211" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7470,16 +7509,16 @@
         <v>218</v>
       </c>
       <c r="D212" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E212" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G212" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H212" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7487,16 +7526,16 @@
         <v>219</v>
       </c>
       <c r="D213" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="E213" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G213" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H213" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7504,16 +7543,16 @@
         <v>220</v>
       </c>
       <c r="D214" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="E214" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G214" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H214" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7521,16 +7560,16 @@
         <v>221</v>
       </c>
       <c r="D215" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E215" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G215" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H215" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7538,16 +7577,16 @@
         <v>222</v>
       </c>
       <c r="D216" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="E216" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G216" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H216" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7555,16 +7594,16 @@
         <v>223</v>
       </c>
       <c r="D217" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="E217" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G217" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H217" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7572,16 +7611,16 @@
         <v>224</v>
       </c>
       <c r="D218" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="E218" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G218" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H218" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7589,33 +7628,42 @@
         <v>225</v>
       </c>
       <c r="D219" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="E219" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G219" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H219" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>226</v>
       </c>
+      <c r="B220" t="s">
+        <v>426</v>
+      </c>
+      <c r="C220" t="s">
+        <v>427</v>
+      </c>
       <c r="D220" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="E220" t="s">
-        <v>722</v>
+        <v>731</v>
+      </c>
+      <c r="F220" t="s">
+        <v>741</v>
       </c>
       <c r="G220" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H220" t="s">
-        <v>943</v>
+        <v>752</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7623,16 +7671,16 @@
         <v>227</v>
       </c>
       <c r="D221" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="E221" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G221" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H221" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7640,16 +7688,16 @@
         <v>228</v>
       </c>
       <c r="D222" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E222" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G222" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H222" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7657,16 +7705,16 @@
         <v>229</v>
       </c>
       <c r="D223" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="E223" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G223" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H223" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7674,16 +7722,16 @@
         <v>230</v>
       </c>
       <c r="D224" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="E224" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G224" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H224" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7691,16 +7739,16 @@
         <v>231</v>
       </c>
       <c r="D225" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="E225" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G225" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H225" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7708,16 +7756,16 @@
         <v>232</v>
       </c>
       <c r="D226" t="s">
-        <v>580</v>
+        <v>496</v>
       </c>
       <c r="E226" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G226" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H226" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7725,16 +7773,16 @@
         <v>233</v>
       </c>
       <c r="D227" t="s">
-        <v>460</v>
+        <v>585</v>
       </c>
       <c r="E227" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G227" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H227" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7742,16 +7790,16 @@
         <v>234</v>
       </c>
       <c r="D228" t="s">
-        <v>454</v>
+        <v>586</v>
       </c>
       <c r="E228" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G228" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H228" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7759,16 +7807,16 @@
         <v>235</v>
       </c>
       <c r="D229" t="s">
-        <v>462</v>
+        <v>587</v>
       </c>
       <c r="E229" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G229" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H229" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7776,16 +7824,16 @@
         <v>236</v>
       </c>
       <c r="D230" t="s">
-        <v>463</v>
+        <v>588</v>
       </c>
       <c r="E230" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G230" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H230" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7793,16 +7841,16 @@
         <v>237</v>
       </c>
       <c r="D231" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="E231" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G231" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="H231" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7810,16 +7858,16 @@
         <v>238</v>
       </c>
       <c r="D232" t="s">
-        <v>582</v>
+        <v>462</v>
       </c>
       <c r="E232" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G232" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H232" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7827,68 +7875,50 @@
         <v>239</v>
       </c>
       <c r="D233" t="s">
-        <v>464</v>
+        <v>590</v>
       </c>
       <c r="E233" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G233" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H233" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>240</v>
       </c>
-      <c r="B234" t="s">
-        <v>421</v>
-      </c>
-      <c r="C234" t="s">
-        <v>422</v>
-      </c>
       <c r="D234" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="E234" t="s">
-        <v>722</v>
-      </c>
-      <c r="F234" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G234" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="H234" t="s">
-        <v>744</v>
+        <v>964</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>241</v>
       </c>
-      <c r="B235" t="s">
-        <v>421</v>
-      </c>
-      <c r="C235" t="s">
-        <v>422</v>
-      </c>
       <c r="D235" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E235" t="s">
-        <v>722</v>
-      </c>
-      <c r="F235" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G235" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H235" t="s">
-        <v>744</v>
+        <v>965</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7896,16 +7926,16 @@
         <v>242</v>
       </c>
       <c r="D236" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E236" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G236" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="H236" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7913,16 +7943,16 @@
         <v>243</v>
       </c>
       <c r="D237" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E237" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G237" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="H237" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7930,16 +7960,16 @@
         <v>244</v>
       </c>
       <c r="D238" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="E238" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G238" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H238" t="s">
-        <v>755</v>
+        <v>968</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7947,16 +7977,16 @@
         <v>245</v>
       </c>
       <c r="D239" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="E239" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G239" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H239" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7964,76 +7994,85 @@
         <v>246</v>
       </c>
       <c r="D240" t="s">
-        <v>585</v>
+        <v>469</v>
       </c>
       <c r="E240" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G240" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H240" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>247</v>
       </c>
+      <c r="B241" t="s">
+        <v>426</v>
+      </c>
+      <c r="C241" t="s">
+        <v>427</v>
+      </c>
       <c r="D241" t="s">
-        <v>586</v>
+        <v>464</v>
       </c>
       <c r="E241" t="s">
-        <v>722</v>
+        <v>730</v>
+      </c>
+      <c r="F241" t="s">
+        <v>743</v>
       </c>
       <c r="G241" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="H241" t="s">
-        <v>961</v>
+        <v>752</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>248</v>
       </c>
+      <c r="B242" t="s">
+        <v>426</v>
+      </c>
+      <c r="C242" t="s">
+        <v>427</v>
+      </c>
       <c r="D242" t="s">
-        <v>587</v>
+        <v>466</v>
       </c>
       <c r="E242" t="s">
-        <v>722</v>
+        <v>730</v>
+      </c>
+      <c r="F242" t="s">
+        <v>741</v>
       </c>
       <c r="G242" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H242" t="s">
-        <v>962</v>
+        <v>752</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>249</v>
       </c>
-      <c r="B243" t="s">
-        <v>421</v>
-      </c>
-      <c r="C243" t="s">
-        <v>422</v>
-      </c>
       <c r="D243" t="s">
-        <v>588</v>
+        <v>471</v>
       </c>
       <c r="E243" t="s">
-        <v>722</v>
-      </c>
-      <c r="F243" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G243" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="H243" t="s">
-        <v>744</v>
+        <v>971</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8041,16 +8080,16 @@
         <v>250</v>
       </c>
       <c r="D244" t="s">
-        <v>589</v>
+        <v>472</v>
       </c>
       <c r="E244" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="G244" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="H244" t="s">
-        <v>963</v>
+        <v>972</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8058,16 +8097,16 @@
         <v>251</v>
       </c>
       <c r="D245" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E245" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="G245" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="H245" t="s">
-        <v>964</v>
+        <v>763</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8075,16 +8114,16 @@
         <v>252</v>
       </c>
       <c r="D246" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E246" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="G246" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H246" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8092,16 +8131,16 @@
         <v>253</v>
       </c>
       <c r="D247" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E247" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="G247" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="H247" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8109,16 +8148,16 @@
         <v>254</v>
       </c>
       <c r="D248" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E248" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="G248" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H248" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8126,16 +8165,16 @@
         <v>255</v>
       </c>
       <c r="D249" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E249" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="G249" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="H249" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8143,25 +8182,25 @@
         <v>256</v>
       </c>
       <c r="B250" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C250" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D250" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E250" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="F250" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="G250" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H250" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8169,42 +8208,33 @@
         <v>257</v>
       </c>
       <c r="D251" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E251" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="G251" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="H251" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>258</v>
       </c>
-      <c r="B252" t="s">
-        <v>421</v>
-      </c>
-      <c r="C252" t="s">
-        <v>422</v>
-      </c>
       <c r="D252" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E252" t="s">
-        <v>723</v>
-      </c>
-      <c r="F252" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G252" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="H252" t="s">
-        <v>744</v>
+        <v>978</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8212,16 +8242,16 @@
         <v>259</v>
       </c>
       <c r="D253" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E253" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="G253" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="H253" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8229,16 +8259,16 @@
         <v>260</v>
       </c>
       <c r="D254" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E254" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="G254" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="H254" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8246,16 +8276,16 @@
         <v>261</v>
       </c>
       <c r="D255" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E255" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="G255" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="H255" t="s">
-        <v>972</v>
+        <v>981</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8263,33 +8293,42 @@
         <v>262</v>
       </c>
       <c r="D256" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E256" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="G256" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="H256" t="s">
-        <v>973</v>
+        <v>982</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>263</v>
       </c>
+      <c r="B257" t="s">
+        <v>426</v>
+      </c>
+      <c r="C257" t="s">
+        <v>427</v>
+      </c>
       <c r="D257" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E257" t="s">
-        <v>724</v>
+        <v>732</v>
+      </c>
+      <c r="F257" t="s">
+        <v>743</v>
       </c>
       <c r="G257" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="H257" t="s">
-        <v>974</v>
+        <v>752</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8297,33 +8336,42 @@
         <v>264</v>
       </c>
       <c r="D258" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E258" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="G258" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H258" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>265</v>
       </c>
+      <c r="B259" t="s">
+        <v>426</v>
+      </c>
+      <c r="C259" t="s">
+        <v>427</v>
+      </c>
       <c r="D259" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E259" t="s">
-        <v>724</v>
+        <v>732</v>
+      </c>
+      <c r="F259" t="s">
+        <v>743</v>
       </c>
       <c r="G259" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="H259" t="s">
-        <v>976</v>
+        <v>752</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8331,16 +8379,16 @@
         <v>266</v>
       </c>
       <c r="D260" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E260" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="G260" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H260" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8348,16 +8396,16 @@
         <v>267</v>
       </c>
       <c r="D261" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E261" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="G261" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="H261" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8365,16 +8413,16 @@
         <v>268</v>
       </c>
       <c r="D262" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E262" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="G262" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="H262" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8382,16 +8430,16 @@
         <v>269</v>
       </c>
       <c r="D263" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E263" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="G263" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H263" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8399,16 +8447,16 @@
         <v>270</v>
       </c>
       <c r="D264" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E264" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="G264" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="H264" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8416,16 +8464,16 @@
         <v>271</v>
       </c>
       <c r="D265" t="s">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="E265" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="G265" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="H265" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8433,16 +8481,16 @@
         <v>272</v>
       </c>
       <c r="D266" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E266" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="G266" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="H266" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8450,16 +8498,16 @@
         <v>273</v>
       </c>
       <c r="D267" t="s">
-        <v>455</v>
+        <v>615</v>
       </c>
       <c r="E267" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="G267" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="H267" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8467,16 +8515,16 @@
         <v>274</v>
       </c>
       <c r="D268" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="E268" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="G268" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="H268" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8484,16 +8532,16 @@
         <v>275</v>
       </c>
       <c r="D269" t="s">
-        <v>472</v>
+        <v>617</v>
       </c>
       <c r="E269" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="G269" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H269" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8501,16 +8549,16 @@
         <v>276</v>
       </c>
       <c r="D270" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="E270" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="G270" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H270" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8518,16 +8566,16 @@
         <v>277</v>
       </c>
       <c r="D271" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="E271" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="G271" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H271" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8538,13 +8586,13 @@
         <v>474</v>
       </c>
       <c r="E272" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="G272" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="H272" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8552,16 +8600,16 @@
         <v>279</v>
       </c>
       <c r="D273" t="s">
-        <v>475</v>
+        <v>620</v>
       </c>
       <c r="E273" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="G273" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H273" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8569,16 +8617,16 @@
         <v>280</v>
       </c>
       <c r="D274" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="E274" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="G274" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H274" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8586,16 +8634,16 @@
         <v>281</v>
       </c>
       <c r="D275" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="E275" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="G275" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H275" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8603,16 +8651,16 @@
         <v>282</v>
       </c>
       <c r="D276" t="s">
-        <v>615</v>
+        <v>477</v>
       </c>
       <c r="E276" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="G276" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H276" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8620,16 +8668,16 @@
         <v>283</v>
       </c>
       <c r="D277" t="s">
-        <v>456</v>
+        <v>622</v>
       </c>
       <c r="E277" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="G277" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H277" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8637,16 +8685,16 @@
         <v>284</v>
       </c>
       <c r="D278" t="s">
-        <v>457</v>
+        <v>623</v>
       </c>
       <c r="E278" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="G278" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H278" t="s">
-        <v>762</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8654,16 +8702,16 @@
         <v>285</v>
       </c>
       <c r="D279" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="E279" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="G279" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H279" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8671,68 +8719,50 @@
         <v>286</v>
       </c>
       <c r="D280" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E280" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="G280" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H280" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>287</v>
       </c>
-      <c r="B281" t="s">
-        <v>421</v>
-      </c>
-      <c r="C281" t="s">
-        <v>422</v>
-      </c>
       <c r="D281" t="s">
-        <v>616</v>
+        <v>481</v>
       </c>
       <c r="E281" t="s">
-        <v>726</v>
-      </c>
-      <c r="F281" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G281" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H281" t="s">
-        <v>744</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>288</v>
       </c>
-      <c r="B282" t="s">
-        <v>421</v>
-      </c>
-      <c r="C282" t="s">
-        <v>422</v>
-      </c>
       <c r="D282" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="E282" t="s">
-        <v>726</v>
-      </c>
-      <c r="F282" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G282" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H282" t="s">
-        <v>744</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8740,16 +8770,16 @@
         <v>289</v>
       </c>
       <c r="D283" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="E283" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="G283" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H283" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8757,16 +8787,16 @@
         <v>290</v>
       </c>
       <c r="D284" t="s">
-        <v>619</v>
+        <v>461</v>
       </c>
       <c r="E284" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="G284" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H284" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8774,16 +8804,16 @@
         <v>291</v>
       </c>
       <c r="D285" t="s">
-        <v>620</v>
+        <v>462</v>
       </c>
       <c r="E285" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="G285" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H285" t="s">
-        <v>999</v>
+        <v>770</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8791,16 +8821,16 @@
         <v>292</v>
       </c>
       <c r="D286" t="s">
-        <v>621</v>
+        <v>464</v>
       </c>
       <c r="E286" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="G286" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H286" t="s">
-        <v>1000</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8808,33 +8838,42 @@
         <v>293</v>
       </c>
       <c r="D287" t="s">
-        <v>622</v>
+        <v>482</v>
       </c>
       <c r="E287" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="G287" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H287" t="s">
-        <v>1001</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>294</v>
       </c>
+      <c r="B288" t="s">
+        <v>426</v>
+      </c>
+      <c r="C288" t="s">
+        <v>427</v>
+      </c>
       <c r="D288" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="E288" t="s">
-        <v>726</v>
+        <v>735</v>
+      </c>
+      <c r="F288" t="s">
+        <v>741</v>
       </c>
       <c r="G288" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H288" t="s">
-        <v>1002</v>
+        <v>752</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8842,19 +8881,25 @@
         <v>295</v>
       </c>
       <c r="B289" t="s">
-        <v>421</v>
+        <v>426</v>
+      </c>
+      <c r="C289" t="s">
+        <v>427</v>
       </c>
       <c r="D289" t="s">
-        <v>453</v>
+        <v>627</v>
       </c>
       <c r="E289" t="s">
-        <v>722</v>
+        <v>735</v>
+      </c>
+      <c r="F289" t="s">
+        <v>741</v>
       </c>
       <c r="G289" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H289" t="s">
-        <v>1003</v>
+        <v>752</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8862,16 +8907,16 @@
         <v>296</v>
       </c>
       <c r="D290" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E290" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="G290" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H290" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8879,16 +8924,16 @@
         <v>297</v>
       </c>
       <c r="D291" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E291" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="G291" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H291" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8896,16 +8941,16 @@
         <v>298</v>
       </c>
       <c r="D292" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E292" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="G292" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H292" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8913,16 +8958,16 @@
         <v>299</v>
       </c>
       <c r="D293" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E293" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="G293" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H293" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8930,16 +8975,16 @@
         <v>300</v>
       </c>
       <c r="D294" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E294" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="G294" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H294" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8947,16 +8992,16 @@
         <v>301</v>
       </c>
       <c r="D295" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E295" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="G295" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H295" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8964,25 +9009,19 @@
         <v>302</v>
       </c>
       <c r="B296" t="s">
-        <v>421</v>
-      </c>
-      <c r="C296" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D296" t="s">
-        <v>630</v>
+        <v>458</v>
       </c>
       <c r="E296" t="s">
-        <v>727</v>
-      </c>
-      <c r="F296" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G296" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="H296" t="s">
-        <v>744</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8990,68 +9029,50 @@
         <v>303</v>
       </c>
       <c r="D297" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="E297" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="G297" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="H297" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>304</v>
       </c>
-      <c r="B298" t="s">
-        <v>421</v>
-      </c>
-      <c r="C298" t="s">
-        <v>422</v>
-      </c>
       <c r="D298" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="E298" t="s">
-        <v>726</v>
-      </c>
-      <c r="F298" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G298" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H298" t="s">
-        <v>744</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>305</v>
       </c>
-      <c r="B299" t="s">
-        <v>421</v>
-      </c>
-      <c r="C299" t="s">
-        <v>422</v>
-      </c>
       <c r="D299" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E299" t="s">
-        <v>726</v>
-      </c>
-      <c r="F299" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G299" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H299" t="s">
-        <v>744</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9059,16 +9080,16 @@
         <v>306</v>
       </c>
       <c r="D300" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="E300" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="G300" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H300" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9076,16 +9097,16 @@
         <v>307</v>
       </c>
       <c r="D301" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="E301" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="G301" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="H301" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9093,33 +9114,42 @@
         <v>308</v>
       </c>
       <c r="D302" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="E302" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G302" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H302" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>309</v>
       </c>
+      <c r="B303" t="s">
+        <v>426</v>
+      </c>
+      <c r="C303" t="s">
+        <v>427</v>
+      </c>
       <c r="D303" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E303" t="s">
-        <v>727</v>
+        <v>736</v>
+      </c>
+      <c r="F303" t="s">
+        <v>741</v>
       </c>
       <c r="G303" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H303" t="s">
-        <v>1014</v>
+        <v>752</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9127,16 +9157,16 @@
         <v>310</v>
       </c>
       <c r="D304" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E304" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G304" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H304" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9144,68 +9174,68 @@
         <v>311</v>
       </c>
       <c r="B305" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C305" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D305" t="s">
-        <v>460</v>
+        <v>642</v>
       </c>
       <c r="E305" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="F305" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G305" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H305" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
         <v>312</v>
       </c>
+      <c r="B306" t="s">
+        <v>426</v>
+      </c>
+      <c r="C306" t="s">
+        <v>427</v>
+      </c>
       <c r="D306" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="E306" t="s">
-        <v>727</v>
+        <v>735</v>
+      </c>
+      <c r="F306" t="s">
+        <v>741</v>
       </c>
       <c r="G306" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H306" t="s">
-        <v>1016</v>
+        <v>752</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
         <v>313</v>
       </c>
-      <c r="B307" t="s">
-        <v>421</v>
-      </c>
-      <c r="C307" t="s">
-        <v>422</v>
-      </c>
       <c r="D307" t="s">
-        <v>461</v>
+        <v>644</v>
       </c>
       <c r="E307" t="s">
-        <v>727</v>
-      </c>
-      <c r="F307" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G307" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="H307" t="s">
-        <v>744</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9213,16 +9243,16 @@
         <v>314</v>
       </c>
       <c r="D308" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="E308" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G308" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H308" t="s">
-        <v>1017</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9230,42 +9260,33 @@
         <v>315</v>
       </c>
       <c r="D309" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="E309" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G309" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H309" t="s">
-        <v>1018</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="s">
         <v>316</v>
       </c>
-      <c r="B310" t="s">
-        <v>421</v>
-      </c>
-      <c r="C310" t="s">
-        <v>422</v>
-      </c>
       <c r="D310" t="s">
-        <v>462</v>
+        <v>647</v>
       </c>
       <c r="E310" t="s">
-        <v>727</v>
-      </c>
-      <c r="F310" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G310" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H310" t="s">
-        <v>744</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9273,16 +9294,16 @@
         <v>317</v>
       </c>
       <c r="D311" t="s">
-        <v>464</v>
+        <v>648</v>
       </c>
       <c r="E311" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G311" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H311" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9290,25 +9311,25 @@
         <v>318</v>
       </c>
       <c r="B312" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C312" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D312" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E312" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="F312" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G312" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H312" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9316,59 +9337,59 @@
         <v>319</v>
       </c>
       <c r="D313" t="s">
-        <v>479</v>
+        <v>649</v>
       </c>
       <c r="E313" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G313" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H313" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
         <v>320</v>
       </c>
+      <c r="B314" t="s">
+        <v>426</v>
+      </c>
+      <c r="C314" t="s">
+        <v>427</v>
+      </c>
       <c r="D314" t="s">
-        <v>642</v>
+        <v>466</v>
       </c>
       <c r="E314" t="s">
-        <v>727</v>
+        <v>736</v>
+      </c>
+      <c r="F314" t="s">
+        <v>741</v>
       </c>
       <c r="G314" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H314" t="s">
-        <v>1021</v>
+        <v>752</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
         <v>321</v>
       </c>
-      <c r="B315" t="s">
-        <v>421</v>
-      </c>
-      <c r="C315" t="s">
-        <v>422</v>
-      </c>
       <c r="D315" t="s">
-        <v>480</v>
+        <v>650</v>
       </c>
       <c r="E315" t="s">
-        <v>727</v>
-      </c>
-      <c r="F315" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G315" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H315" t="s">
-        <v>744</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9376,59 +9397,59 @@
         <v>322</v>
       </c>
       <c r="D316" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="E316" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G316" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="H316" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
         <v>323</v>
       </c>
+      <c r="B317" t="s">
+        <v>426</v>
+      </c>
+      <c r="C317" t="s">
+        <v>427</v>
+      </c>
       <c r="D317" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="E317" t="s">
-        <v>727</v>
+        <v>736</v>
+      </c>
+      <c r="F317" t="s">
+        <v>741</v>
       </c>
       <c r="G317" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H317" t="s">
-        <v>1023</v>
+        <v>752</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
         <v>324</v>
       </c>
-      <c r="B318" t="s">
-        <v>421</v>
-      </c>
-      <c r="C318" t="s">
-        <v>422</v>
-      </c>
       <c r="D318" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E318" t="s">
-        <v>727</v>
-      </c>
-      <c r="F318" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G318" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H318" t="s">
-        <v>744</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9436,51 +9457,42 @@
         <v>325</v>
       </c>
       <c r="B319" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C319" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D319" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E319" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="F319" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G319" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H319" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
         <v>326</v>
       </c>
-      <c r="B320" t="s">
-        <v>421</v>
-      </c>
-      <c r="C320" t="s">
-        <v>422</v>
-      </c>
       <c r="D320" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="E320" t="s">
-        <v>727</v>
-      </c>
-      <c r="F320" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G320" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H320" t="s">
-        <v>744</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9488,33 +9500,42 @@
         <v>327</v>
       </c>
       <c r="D321" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="E321" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G321" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H321" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" t="s">
         <v>328</v>
       </c>
+      <c r="B322" t="s">
+        <v>426</v>
+      </c>
+      <c r="C322" t="s">
+        <v>427</v>
+      </c>
       <c r="D322" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E322" t="s">
-        <v>727</v>
+        <v>736</v>
+      </c>
+      <c r="F322" t="s">
+        <v>741</v>
       </c>
       <c r="G322" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H322" t="s">
-        <v>1025</v>
+        <v>752</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9522,16 +9543,16 @@
         <v>329</v>
       </c>
       <c r="D323" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="E323" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G323" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H323" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9539,67 +9560,94 @@
         <v>330</v>
       </c>
       <c r="D324" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E324" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G324" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H324" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="325" spans="1:8">
       <c r="A325" t="s">
         <v>331</v>
       </c>
+      <c r="B325" t="s">
+        <v>426</v>
+      </c>
+      <c r="C325" t="s">
+        <v>427</v>
+      </c>
       <c r="D325" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E325" t="s">
-        <v>727</v>
+        <v>736</v>
+      </c>
+      <c r="F325" t="s">
+        <v>741</v>
       </c>
       <c r="G325" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H325" t="s">
-        <v>992</v>
+        <v>752</v>
       </c>
     </row>
     <row r="326" spans="1:8">
       <c r="A326" t="s">
         <v>332</v>
       </c>
+      <c r="B326" t="s">
+        <v>426</v>
+      </c>
+      <c r="C326" t="s">
+        <v>427</v>
+      </c>
       <c r="D326" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E326" t="s">
-        <v>727</v>
+        <v>736</v>
+      </c>
+      <c r="F326" t="s">
+        <v>741</v>
       </c>
       <c r="G326" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H326" t="s">
-        <v>1028</v>
+        <v>752</v>
       </c>
     </row>
     <row r="327" spans="1:8">
       <c r="A327" t="s">
         <v>333</v>
       </c>
+      <c r="B327" t="s">
+        <v>426</v>
+      </c>
+      <c r="C327" t="s">
+        <v>427</v>
+      </c>
       <c r="D327" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="E327" t="s">
-        <v>727</v>
+        <v>736</v>
+      </c>
+      <c r="F327" t="s">
+        <v>741</v>
       </c>
       <c r="G327" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="H327" t="s">
-        <v>1029</v>
+        <v>752</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9607,16 +9655,16 @@
         <v>334</v>
       </c>
       <c r="D328" t="s">
-        <v>472</v>
+        <v>654</v>
       </c>
       <c r="E328" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G328" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H328" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9624,16 +9672,16 @@
         <v>335</v>
       </c>
       <c r="D329" t="s">
-        <v>646</v>
+        <v>487</v>
       </c>
       <c r="E329" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G329" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H329" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9641,16 +9689,16 @@
         <v>336</v>
       </c>
       <c r="D330" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="E330" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G330" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H330" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9658,16 +9706,16 @@
         <v>337</v>
       </c>
       <c r="D331" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="E331" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G331" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H331" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9675,16 +9723,16 @@
         <v>338</v>
       </c>
       <c r="D332" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E332" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G332" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H332" t="s">
-        <v>1034</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9692,16 +9740,16 @@
         <v>339</v>
       </c>
       <c r="D333" t="s">
-        <v>648</v>
+        <v>474</v>
       </c>
       <c r="E333" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G333" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H333" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9709,42 +9757,33 @@
         <v>340</v>
       </c>
       <c r="D334" t="s">
-        <v>649</v>
+        <v>489</v>
       </c>
       <c r="E334" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="G334" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H334" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="335" spans="1:8">
       <c r="A335" t="s">
         <v>341</v>
       </c>
-      <c r="B335" t="s">
-        <v>421</v>
-      </c>
-      <c r="C335" t="s">
-        <v>422</v>
-      </c>
       <c r="D335" t="s">
-        <v>650</v>
+        <v>477</v>
       </c>
       <c r="E335" t="s">
-        <v>727</v>
-      </c>
-      <c r="F335" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G335" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="H335" t="s">
-        <v>744</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9752,16 +9791,16 @@
         <v>342</v>
       </c>
       <c r="D336" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="E336" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="G336" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="H336" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9769,16 +9808,16 @@
         <v>343</v>
       </c>
       <c r="D337" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="E337" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="G337" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H337" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9786,16 +9825,16 @@
         <v>344</v>
       </c>
       <c r="D338" t="s">
-        <v>653</v>
+        <v>479</v>
       </c>
       <c r="E338" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="G338" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H338" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9803,16 +9842,16 @@
         <v>345</v>
       </c>
       <c r="D339" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E339" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="G339" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H339" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9820,16 +9859,16 @@
         <v>346</v>
       </c>
       <c r="D340" t="s">
-        <v>487</v>
+        <v>658</v>
       </c>
       <c r="E340" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="G340" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H340" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9837,16 +9876,16 @@
         <v>347</v>
       </c>
       <c r="D341" t="s">
-        <v>489</v>
+        <v>659</v>
       </c>
       <c r="E341" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="G341" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="H341" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9854,51 +9893,42 @@
         <v>348</v>
       </c>
       <c r="B342" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C342" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D342" t="s">
-        <v>476</v>
+        <v>660</v>
       </c>
       <c r="E342" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="F342" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G342" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H342" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="343" spans="1:8">
       <c r="A343" t="s">
         <v>349</v>
       </c>
-      <c r="B343" t="s">
-        <v>421</v>
-      </c>
-      <c r="C343" t="s">
-        <v>422</v>
-      </c>
       <c r="D343" t="s">
-        <v>490</v>
+        <v>661</v>
       </c>
       <c r="E343" t="s">
-        <v>728</v>
-      </c>
-      <c r="F343" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="G343" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H343" t="s">
-        <v>744</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9906,16 +9936,16 @@
         <v>350</v>
       </c>
       <c r="D344" t="s">
-        <v>477</v>
+        <v>662</v>
       </c>
       <c r="E344" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="G344" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="H344" t="s">
-        <v>1043</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9923,16 +9953,16 @@
         <v>351</v>
       </c>
       <c r="D345" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="E345" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="G345" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H345" t="s">
-        <v>1044</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9940,42 +9970,33 @@
         <v>352</v>
       </c>
       <c r="D346" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="E346" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="G346" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H346" t="s">
-        <v>1045</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="347" spans="1:8">
       <c r="A347" t="s">
         <v>353</v>
       </c>
-      <c r="B347" t="s">
-        <v>421</v>
-      </c>
-      <c r="C347" t="s">
-        <v>422</v>
-      </c>
       <c r="D347" t="s">
-        <v>655</v>
+        <v>492</v>
       </c>
       <c r="E347" t="s">
-        <v>729</v>
-      </c>
-      <c r="F347" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="G347" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="H347" t="s">
-        <v>744</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9983,50 +10004,68 @@
         <v>354</v>
       </c>
       <c r="D348" t="s">
-        <v>656</v>
+        <v>494</v>
       </c>
       <c r="E348" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="G348" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="H348" t="s">
-        <v>1046</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="349" spans="1:8">
       <c r="A349" t="s">
         <v>355</v>
       </c>
+      <c r="B349" t="s">
+        <v>426</v>
+      </c>
+      <c r="C349" t="s">
+        <v>427</v>
+      </c>
       <c r="D349" t="s">
-        <v>657</v>
+        <v>481</v>
       </c>
       <c r="E349" t="s">
-        <v>728</v>
+        <v>737</v>
+      </c>
+      <c r="F349" t="s">
+        <v>741</v>
       </c>
       <c r="G349" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H349" t="s">
-        <v>1047</v>
+        <v>752</v>
       </c>
     </row>
     <row r="350" spans="1:8">
       <c r="A350" t="s">
         <v>356</v>
       </c>
+      <c r="B350" t="s">
+        <v>426</v>
+      </c>
+      <c r="C350" t="s">
+        <v>427</v>
+      </c>
       <c r="D350" t="s">
-        <v>658</v>
+        <v>495</v>
       </c>
       <c r="E350" t="s">
-        <v>728</v>
+        <v>737</v>
+      </c>
+      <c r="F350" t="s">
+        <v>741</v>
       </c>
       <c r="G350" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H350" t="s">
-        <v>1048</v>
+        <v>752</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10034,16 +10073,16 @@
         <v>357</v>
       </c>
       <c r="D351" t="s">
-        <v>659</v>
+        <v>482</v>
       </c>
       <c r="E351" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="G351" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H351" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10051,16 +10090,16 @@
         <v>358</v>
       </c>
       <c r="D352" t="s">
-        <v>480</v>
+        <v>664</v>
       </c>
       <c r="E352" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="G352" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H352" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10068,16 +10107,16 @@
         <v>359</v>
       </c>
       <c r="D353" t="s">
-        <v>660</v>
+        <v>484</v>
       </c>
       <c r="E353" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="G353" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H353" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10085,16 +10124,16 @@
         <v>360</v>
       </c>
       <c r="D354" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="E354" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="G354" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H354" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10102,16 +10141,16 @@
         <v>361</v>
       </c>
       <c r="D355" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="E355" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="G355" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H355" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10119,16 +10158,16 @@
         <v>362</v>
       </c>
       <c r="D356" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="E356" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="G356" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="H356" t="s">
-        <v>1012</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10136,16 +10175,16 @@
         <v>363</v>
       </c>
       <c r="D357" t="s">
-        <v>664</v>
+        <v>485</v>
       </c>
       <c r="E357" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="G357" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H357" t="s">
-        <v>1054</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10153,16 +10192,16 @@
         <v>364</v>
       </c>
       <c r="D358" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E358" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="G358" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H358" t="s">
-        <v>1055</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10170,42 +10209,33 @@
         <v>365</v>
       </c>
       <c r="D359" t="s">
-        <v>491</v>
+        <v>669</v>
       </c>
       <c r="E359" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="G359" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H359" t="s">
-        <v>1056</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="360" spans="1:8">
       <c r="A360" t="s">
         <v>366</v>
       </c>
-      <c r="B360" t="s">
-        <v>421</v>
-      </c>
-      <c r="C360" t="s">
-        <v>422</v>
-      </c>
       <c r="D360" t="s">
-        <v>492</v>
+        <v>670</v>
       </c>
       <c r="E360" t="s">
-        <v>730</v>
-      </c>
-      <c r="F360" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="G360" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="H360" t="s">
-        <v>744</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10213,16 +10243,16 @@
         <v>367</v>
       </c>
       <c r="D361" t="s">
-        <v>493</v>
+        <v>671</v>
       </c>
       <c r="E361" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G361" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H361" t="s">
-        <v>1057</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10230,16 +10260,16 @@
         <v>368</v>
       </c>
       <c r="D362" t="s">
-        <v>481</v>
+        <v>672</v>
       </c>
       <c r="E362" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G362" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H362" t="s">
-        <v>1058</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10247,16 +10277,16 @@
         <v>369</v>
       </c>
       <c r="D363" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="E363" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G363" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H363" t="s">
-        <v>1059</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -10264,33 +10294,42 @@
         <v>370</v>
       </c>
       <c r="D364" t="s">
-        <v>667</v>
+        <v>496</v>
       </c>
       <c r="E364" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G364" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="H364" t="s">
-        <v>1060</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="365" spans="1:8">
       <c r="A365" t="s">
         <v>371</v>
       </c>
+      <c r="B365" t="s">
+        <v>426</v>
+      </c>
+      <c r="C365" t="s">
+        <v>427</v>
+      </c>
       <c r="D365" t="s">
-        <v>668</v>
+        <v>497</v>
       </c>
       <c r="E365" t="s">
-        <v>730</v>
+        <v>738</v>
+      </c>
+      <c r="F365" t="s">
+        <v>741</v>
       </c>
       <c r="G365" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H365" t="s">
-        <v>1061</v>
+        <v>752</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10298,16 +10337,16 @@
         <v>372</v>
       </c>
       <c r="D366" t="s">
-        <v>669</v>
+        <v>498</v>
       </c>
       <c r="E366" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G366" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H366" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10315,16 +10354,16 @@
         <v>373</v>
       </c>
       <c r="D367" t="s">
-        <v>670</v>
+        <v>486</v>
       </c>
       <c r="E367" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G367" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H367" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10332,16 +10371,16 @@
         <v>374</v>
       </c>
       <c r="D368" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E368" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G368" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H368" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10349,16 +10388,16 @@
         <v>375</v>
       </c>
       <c r="D369" t="s">
-        <v>482</v>
+        <v>675</v>
       </c>
       <c r="E369" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G369" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H369" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10366,16 +10405,16 @@
         <v>376</v>
       </c>
       <c r="D370" t="s">
-        <v>483</v>
+        <v>676</v>
       </c>
       <c r="E370" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G370" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H370" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10383,16 +10422,16 @@
         <v>377</v>
       </c>
       <c r="D371" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="E371" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G371" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H371" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10400,16 +10439,16 @@
         <v>378</v>
       </c>
       <c r="D372" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="E372" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G372" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H372" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10417,16 +10456,16 @@
         <v>379</v>
       </c>
       <c r="D373" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="E373" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G373" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H373" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10434,16 +10473,16 @@
         <v>380</v>
       </c>
       <c r="D374" t="s">
-        <v>675</v>
+        <v>487</v>
       </c>
       <c r="E374" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="G374" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H374" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10451,16 +10490,16 @@
         <v>381</v>
       </c>
       <c r="D375" t="s">
-        <v>676</v>
+        <v>488</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="G375" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H375" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10468,16 +10507,16 @@
         <v>382</v>
       </c>
       <c r="D376" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E376" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="G376" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H376" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10485,16 +10524,16 @@
         <v>383</v>
       </c>
       <c r="D377" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="E377" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="G377" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H377" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10502,16 +10541,16 @@
         <v>384</v>
       </c>
       <c r="D378" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="E378" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="G378" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="H378" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10519,16 +10558,16 @@
         <v>385</v>
       </c>
       <c r="D379" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E379" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G379" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H379" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10536,16 +10575,16 @@
         <v>386</v>
       </c>
       <c r="D380" t="s">
-        <v>494</v>
+        <v>684</v>
       </c>
       <c r="E380" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G380" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H380" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10553,16 +10592,16 @@
         <v>387</v>
       </c>
       <c r="D381" t="s">
-        <v>484</v>
+        <v>685</v>
       </c>
       <c r="E381" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G381" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H381" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10570,16 +10609,16 @@
         <v>388</v>
       </c>
       <c r="D382" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="E382" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G382" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H382" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10587,16 +10626,16 @@
         <v>389</v>
       </c>
       <c r="D383" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="E383" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G383" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="H383" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10604,16 +10643,16 @@
         <v>390</v>
       </c>
       <c r="D384" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="E384" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G384" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="H384" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10621,16 +10660,16 @@
         <v>391</v>
       </c>
       <c r="D385" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E385" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G385" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="H385" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10638,16 +10677,16 @@
         <v>392</v>
       </c>
       <c r="D386" t="s">
-        <v>684</v>
+        <v>489</v>
       </c>
       <c r="E386" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G386" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="H386" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10655,16 +10694,16 @@
         <v>393</v>
       </c>
       <c r="D387" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="E387" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G387" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="H387" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10672,16 +10711,16 @@
         <v>394</v>
       </c>
       <c r="D388" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E388" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G388" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H388" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10689,42 +10728,33 @@
         <v>395</v>
       </c>
       <c r="D389" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="E389" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G389" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H389" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="390" spans="1:8">
       <c r="A390" t="s">
         <v>396</v>
       </c>
-      <c r="B390" t="s">
-        <v>421</v>
-      </c>
-      <c r="C390" t="s">
-        <v>422</v>
-      </c>
       <c r="D390" t="s">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="E390" t="s">
-        <v>731</v>
-      </c>
-      <c r="F390" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="G390" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H390" t="s">
-        <v>744</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10732,16 +10762,16 @@
         <v>397</v>
       </c>
       <c r="D391" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E391" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G391" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H391" t="s">
-        <v>1086</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10749,16 +10779,16 @@
         <v>398</v>
       </c>
       <c r="D392" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="E392" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G392" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H392" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10766,42 +10796,33 @@
         <v>399</v>
       </c>
       <c r="D393" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="E393" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="G393" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H393" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="394" spans="1:8">
       <c r="A394" t="s">
         <v>400</v>
       </c>
-      <c r="B394" t="s">
-        <v>421</v>
-      </c>
-      <c r="C394" t="s">
-        <v>422</v>
-      </c>
       <c r="D394" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E394" t="s">
-        <v>732</v>
-      </c>
-      <c r="F394" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="G394" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H394" t="s">
-        <v>744</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10809,25 +10830,25 @@
         <v>401</v>
       </c>
       <c r="B395" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C395" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D395" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="E395" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="F395" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G395" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H395" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10835,16 +10856,16 @@
         <v>402</v>
       </c>
       <c r="D396" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="E396" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="G396" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="H396" t="s">
-        <v>1089</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10852,16 +10873,16 @@
         <v>403</v>
       </c>
       <c r="D397" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E397" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="G397" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H397" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10869,50 +10890,68 @@
         <v>404</v>
       </c>
       <c r="D398" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="E398" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="G398" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H398" t="s">
-        <v>1091</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="399" spans="1:8">
       <c r="A399" t="s">
         <v>405</v>
       </c>
+      <c r="B399" t="s">
+        <v>426</v>
+      </c>
+      <c r="C399" t="s">
+        <v>427</v>
+      </c>
       <c r="D399" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E399" t="s">
-        <v>729</v>
+        <v>740</v>
+      </c>
+      <c r="F399" t="s">
+        <v>741</v>
       </c>
       <c r="G399" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="H399" t="s">
-        <v>1092</v>
+        <v>752</v>
       </c>
     </row>
     <row r="400" spans="1:8">
       <c r="A400" t="s">
         <v>406</v>
       </c>
+      <c r="B400" t="s">
+        <v>426</v>
+      </c>
+      <c r="C400" t="s">
+        <v>427</v>
+      </c>
       <c r="D400" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="E400" t="s">
-        <v>729</v>
+        <v>740</v>
+      </c>
+      <c r="F400" t="s">
+        <v>741</v>
       </c>
       <c r="G400" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="H400" t="s">
-        <v>1093</v>
+        <v>752</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10920,16 +10959,16 @@
         <v>407</v>
       </c>
       <c r="D401" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="E401" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="G401" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="H401" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10937,16 +10976,16 @@
         <v>408</v>
       </c>
       <c r="D402" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="E402" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G402" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H402" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10954,16 +10993,16 @@
         <v>409</v>
       </c>
       <c r="D403" t="s">
-        <v>486</v>
+        <v>704</v>
       </c>
       <c r="E403" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G403" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="H403" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10971,42 +11010,33 @@
         <v>410</v>
       </c>
       <c r="D404" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="E404" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G404" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H404" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="405" spans="1:8">
       <c r="A405" t="s">
         <v>411</v>
       </c>
-      <c r="B405" t="s">
-        <v>421</v>
-      </c>
-      <c r="C405" t="s">
-        <v>422</v>
-      </c>
       <c r="D405" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="E405" t="s">
-        <v>729</v>
-      </c>
-      <c r="F405" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G405" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H405" t="s">
-        <v>744</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11014,16 +11044,16 @@
         <v>412</v>
       </c>
       <c r="D406" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="E406" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G406" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H406" t="s">
-        <v>1098</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11031,16 +11061,16 @@
         <v>413</v>
       </c>
       <c r="D407" t="s">
-        <v>487</v>
+        <v>708</v>
       </c>
       <c r="E407" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G407" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H407" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11048,16 +11078,16 @@
         <v>414</v>
       </c>
       <c r="D408" t="s">
-        <v>704</v>
+        <v>491</v>
       </c>
       <c r="E408" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G408" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H408" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11065,33 +11095,42 @@
         <v>415</v>
       </c>
       <c r="D409" t="s">
-        <v>489</v>
+        <v>709</v>
       </c>
       <c r="E409" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G409" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="H409" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="410" spans="1:8">
       <c r="A410" t="s">
         <v>416</v>
       </c>
+      <c r="B410" t="s">
+        <v>426</v>
+      </c>
+      <c r="C410" t="s">
+        <v>427</v>
+      </c>
       <c r="D410" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="E410" t="s">
-        <v>729</v>
+        <v>731</v>
+      </c>
+      <c r="F410" t="s">
+        <v>741</v>
       </c>
       <c r="G410" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H410" t="s">
-        <v>1102</v>
+        <v>752</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11099,16 +11138,16 @@
         <v>417</v>
       </c>
       <c r="D411" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="E411" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G411" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H411" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11116,16 +11155,16 @@
         <v>418</v>
       </c>
       <c r="D412" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E412" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G412" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H412" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11133,16 +11172,16 @@
         <v>419</v>
       </c>
       <c r="D413" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="E413" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G413" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H413" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11150,16 +11189,101 @@
         <v>420</v>
       </c>
       <c r="D414" t="s">
-        <v>708</v>
+        <v>494</v>
       </c>
       <c r="E414" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G414" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="H414" t="s">
-        <v>1106</v>
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
+      <c r="A415" t="s">
+        <v>421</v>
+      </c>
+      <c r="D415" t="s">
+        <v>713</v>
+      </c>
+      <c r="E415" t="s">
+        <v>731</v>
+      </c>
+      <c r="G415" t="s">
+        <v>748</v>
+      </c>
+      <c r="H415" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
+      <c r="A416" t="s">
+        <v>422</v>
+      </c>
+      <c r="D416" t="s">
+        <v>714</v>
+      </c>
+      <c r="E416" t="s">
+        <v>731</v>
+      </c>
+      <c r="G416" t="s">
+        <v>748</v>
+      </c>
+      <c r="H416" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
+      <c r="A417" t="s">
+        <v>423</v>
+      </c>
+      <c r="D417" t="s">
+        <v>501</v>
+      </c>
+      <c r="E417" t="s">
+        <v>731</v>
+      </c>
+      <c r="G417" t="s">
+        <v>748</v>
+      </c>
+      <c r="H417" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
+      <c r="A418" t="s">
+        <v>424</v>
+      </c>
+      <c r="D418" t="s">
+        <v>715</v>
+      </c>
+      <c r="E418" t="s">
+        <v>731</v>
+      </c>
+      <c r="G418" t="s">
+        <v>748</v>
+      </c>
+      <c r="H418" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
+      <c r="A419" t="s">
+        <v>425</v>
+      </c>
+      <c r="D419" t="s">
+        <v>716</v>
+      </c>
+      <c r="E419" t="s">
+        <v>731</v>
+      </c>
+      <c r="G419" t="s">
+        <v>748</v>
+      </c>
+      <c r="H419" t="s">
+        <v>1119</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/J1BNFE.xlsx
+++ b/src/data/J1BNFE.xlsx
@@ -40,6 +40,9 @@
     <t>Hora processamento</t>
   </si>
   <si>
+    <t>10489</t>
+  </si>
+  <si>
     <t>536</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
     <t>894</t>
   </si>
   <si>
-    <t>10489</t>
-  </si>
-  <si>
     <t>913</t>
   </si>
   <si>
@@ -685,6 +685,27 @@
     <t>5650</t>
   </si>
   <si>
+    <t>9972</t>
+  </si>
+  <si>
+    <t>10494</t>
+  </si>
+  <si>
+    <t>10542</t>
+  </si>
+  <si>
+    <t>10538</t>
+  </si>
+  <si>
+    <t>10601</t>
+  </si>
+  <si>
+    <t>10617</t>
+  </si>
+  <si>
+    <t>10618</t>
+  </si>
+  <si>
     <t>5667</t>
   </si>
   <si>
@@ -694,27 +715,6 @@
     <t>5733</t>
   </si>
   <si>
-    <t>9972</t>
-  </si>
-  <si>
-    <t>10494</t>
-  </si>
-  <si>
-    <t>10542</t>
-  </si>
-  <si>
-    <t>10538</t>
-  </si>
-  <si>
-    <t>10601</t>
-  </si>
-  <si>
-    <t>10617</t>
-  </si>
-  <si>
-    <t>10618</t>
-  </si>
-  <si>
     <t>5739</t>
   </si>
   <si>
@@ -1300,6 +1300,9 @@
     <t>X</t>
   </si>
   <si>
+    <t>000000291</t>
+  </si>
+  <si>
     <t>000000002</t>
   </si>
   <si>
@@ -1357,9 +1360,6 @@
     <t>000000030</t>
   </si>
   <si>
-    <t>000000291</t>
-  </si>
-  <si>
     <t>000000032</t>
   </si>
   <si>
@@ -1747,6 +1747,21 @@
     <t>000000154</t>
   </si>
   <si>
+    <t>000000278</t>
+  </si>
+  <si>
+    <t>000000292</t>
+  </si>
+  <si>
+    <t>000000293</t>
+  </si>
+  <si>
+    <t>000000294</t>
+  </si>
+  <si>
+    <t>000000295</t>
+  </si>
+  <si>
     <t>000000155</t>
   </si>
   <si>
@@ -1756,21 +1771,6 @@
     <t>000000157</t>
   </si>
   <si>
-    <t>000000278</t>
-  </si>
-  <si>
-    <t>000000292</t>
-  </si>
-  <si>
-    <t>000000293</t>
-  </si>
-  <si>
-    <t>000000294</t>
-  </si>
-  <si>
-    <t>000000295</t>
-  </si>
-  <si>
     <t>000000158</t>
   </si>
   <si>
@@ -2167,6 +2167,9 @@
     <t>000000290</t>
   </si>
   <si>
+    <t>2026-02-24 00:00:00</t>
+  </si>
+  <si>
     <t>2026-02-01 00:00:00</t>
   </si>
   <si>
@@ -2176,9 +2179,6 @@
     <t>2026-02-03 00:00:00</t>
   </si>
   <si>
-    <t>2026-02-24 00:00:00</t>
-  </si>
-  <si>
     <t>2026-02-04 00:00:00</t>
   </si>
   <si>
@@ -2248,6 +2248,9 @@
     <t>Cancelamento por problemas técnicos</t>
   </si>
   <si>
+    <t>WENDRYO.G</t>
+  </si>
+  <si>
     <t>MANOEL.F</t>
   </si>
   <si>
@@ -2257,15 +2260,15 @@
     <t>IURI.C</t>
   </si>
   <si>
-    <t>WENDRYO.G</t>
-  </si>
-  <si>
     <t>CLEITON.C</t>
   </si>
   <si>
     <t>ANA.V</t>
   </si>
   <si>
+    <t>07:31:03</t>
+  </si>
+  <si>
     <t>14:21:32</t>
   </si>
   <si>
@@ -2332,9 +2335,6 @@
     <t>09:19:52</t>
   </si>
   <si>
-    <t>07:31:03</t>
-  </si>
-  <si>
     <t>09:42:10</t>
   </si>
   <si>
@@ -2860,6 +2860,24 @@
     <t>08:08:13</t>
   </si>
   <si>
+    <t>07:46:31</t>
+  </si>
+  <si>
+    <t>08:30:33</t>
+  </si>
+  <si>
+    <t>08:31:27</t>
+  </si>
+  <si>
+    <t>09:23:17</t>
+  </si>
+  <si>
+    <t>09:39:58</t>
+  </si>
+  <si>
+    <t>09:40:14</t>
+  </si>
+  <si>
     <t>08:26:24</t>
   </si>
   <si>
@@ -2867,24 +2885,6 @@
   </si>
   <si>
     <t>09:13:43</t>
-  </si>
-  <si>
-    <t>07:46:31</t>
-  </si>
-  <si>
-    <t>08:30:33</t>
-  </si>
-  <si>
-    <t>08:31:27</t>
-  </si>
-  <si>
-    <t>09:23:17</t>
-  </si>
-  <si>
-    <t>09:39:58</t>
-  </si>
-  <si>
-    <t>09:40:14</t>
   </si>
   <si>
     <t>09:18:56</t>
@@ -3788,7 +3788,7 @@
         <v>429</v>
       </c>
       <c r="E3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G3" t="s">
         <v>745</v>
@@ -3801,23 +3801,14 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C4" t="s">
-        <v>427</v>
-      </c>
       <c r="D4" t="s">
         <v>430</v>
       </c>
       <c r="E4" t="s">
-        <v>717</v>
-      </c>
-      <c r="F4" t="s">
-        <v>741</v>
+        <v>718</v>
       </c>
       <c r="G4" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H4" t="s">
         <v>752</v>
@@ -3837,16 +3828,16 @@
         <v>431</v>
       </c>
       <c r="E5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F5" t="s">
         <v>741</v>
       </c>
       <c r="G5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H5" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3860,19 +3851,19 @@
         <v>427</v>
       </c>
       <c r="D6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G6" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3886,19 +3877,19 @@
         <v>427</v>
       </c>
       <c r="D7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F7" t="s">
         <v>742</v>
       </c>
       <c r="G7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3915,30 +3906,39 @@
         <v>433</v>
       </c>
       <c r="E8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G8" t="s">
         <v>745</v>
       </c>
       <c r="H8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
+      <c r="B9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" t="s">
+        <v>427</v>
+      </c>
       <c r="D9" t="s">
         <v>434</v>
       </c>
       <c r="E9" t="s">
         <v>718</v>
       </c>
+      <c r="F9" t="s">
+        <v>741</v>
+      </c>
       <c r="G9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H9" t="s">
         <v>753</v>
@@ -3948,43 +3948,43 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C10" t="s">
-        <v>427</v>
-      </c>
       <c r="D10" t="s">
         <v>435</v>
       </c>
       <c r="E10" t="s">
-        <v>718</v>
-      </c>
-      <c r="F10" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="G10" t="s">
         <v>744</v>
       </c>
       <c r="H10" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
+      <c r="B11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" t="s">
+        <v>427</v>
+      </c>
       <c r="D11" t="s">
         <v>436</v>
       </c>
       <c r="E11" t="s">
-        <v>718</v>
+        <v>719</v>
+      </c>
+      <c r="F11" t="s">
+        <v>741</v>
       </c>
       <c r="G11" t="s">
         <v>745</v>
       </c>
       <c r="H11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3995,10 +3995,10 @@
         <v>437</v>
       </c>
       <c r="E12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H12" t="s">
         <v>755</v>
@@ -4009,13 +4009,13 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E13" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H13" t="s">
         <v>756</v>
@@ -4026,10 +4026,10 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E14" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G14" t="s">
         <v>746</v>
@@ -4042,17 +4042,14 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
-        <v>426</v>
-      </c>
       <c r="D15" t="s">
         <v>439</v>
       </c>
       <c r="E15" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G15" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="H15" t="s">
         <v>758</v>
@@ -4062,6 +4059,9 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
+      <c r="B16" t="s">
+        <v>426</v>
+      </c>
       <c r="D16" t="s">
         <v>440</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G17" t="s">
         <v>746</v>
@@ -4097,13 +4097,13 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="E18" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G18" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H18" t="s">
         <v>761</v>
@@ -4114,13 +4114,13 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E19" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G19" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H19" t="s">
         <v>762</v>
@@ -4131,10 +4131,10 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="E20" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G20" t="s">
         <v>746</v>
@@ -4148,10 +4148,10 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E21" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G21" t="s">
         <v>747</v>
@@ -4165,13 +4165,13 @@
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E22" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G22" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H22" t="s">
         <v>765</v>
@@ -4182,10 +4182,10 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E23" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G23" t="s">
         <v>747</v>
@@ -4202,7 +4202,7 @@
         <v>443</v>
       </c>
       <c r="E24" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G24" t="s">
         <v>744</v>
@@ -4219,10 +4219,10 @@
         <v>444</v>
       </c>
       <c r="E25" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G25" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H25" t="s">
         <v>768</v>
@@ -4236,7 +4236,7 @@
         <v>445</v>
       </c>
       <c r="E26" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G26" t="s">
         <v>745</v>
@@ -4253,10 +4253,10 @@
         <v>446</v>
       </c>
       <c r="E27" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G27" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H27" t="s">
         <v>770</v>
@@ -4267,7 +4267,7 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="E28" t="s">
         <v>719</v>
@@ -4284,13 +4284,13 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="E29" t="s">
         <v>720</v>
       </c>
       <c r="G29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H29" t="s">
         <v>772</v>
@@ -4304,10 +4304,10 @@
         <v>448</v>
       </c>
       <c r="E30" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G30" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H30" t="s">
         <v>773</v>
@@ -4321,10 +4321,10 @@
         <v>449</v>
       </c>
       <c r="E31" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G31" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H31" t="s">
         <v>774</v>
@@ -4338,10 +4338,10 @@
         <v>450</v>
       </c>
       <c r="E32" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G32" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H32" t="s">
         <v>775</v>
@@ -4355,10 +4355,10 @@
         <v>451</v>
       </c>
       <c r="E33" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G33" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H33" t="s">
         <v>776</v>
@@ -4372,10 +4372,10 @@
         <v>452</v>
       </c>
       <c r="E34" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G34" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H34" t="s">
         <v>777</v>
@@ -4392,19 +4392,19 @@
         <v>427</v>
       </c>
       <c r="D35" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E35" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F35" t="s">
         <v>741</v>
       </c>
       <c r="G35" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H35" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -4421,16 +4421,16 @@
         <v>453</v>
       </c>
       <c r="E36" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F36" t="s">
         <v>741</v>
       </c>
       <c r="G36" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H36" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -4438,13 +4438,13 @@
         <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E37" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G37" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H37" t="s">
         <v>778</v>
@@ -4455,13 +4455,13 @@
         <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E38" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G38" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H38" t="s">
         <v>779</v>
@@ -4475,10 +4475,10 @@
         <v>454</v>
       </c>
       <c r="E39" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G39" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H39" t="s">
         <v>780</v>
@@ -4489,13 +4489,13 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E40" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G40" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H40" t="s">
         <v>781</v>
@@ -4509,10 +4509,10 @@
         <v>455</v>
       </c>
       <c r="E41" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G41" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H41" t="s">
         <v>782</v>
@@ -4526,10 +4526,10 @@
         <v>456</v>
       </c>
       <c r="E42" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G42" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H42" t="s">
         <v>783</v>
@@ -4549,16 +4549,16 @@
         <v>457</v>
       </c>
       <c r="E43" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F43" t="s">
         <v>741</v>
       </c>
       <c r="G43" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H43" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4569,10 +4569,10 @@
         <v>458</v>
       </c>
       <c r="E44" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G44" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H44" t="s">
         <v>784</v>
@@ -4586,10 +4586,10 @@
         <v>459</v>
       </c>
       <c r="E45" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G45" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H45" t="s">
         <v>785</v>
@@ -4603,10 +4603,10 @@
         <v>453</v>
       </c>
       <c r="E46" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G46" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H46" t="s">
         <v>786</v>
@@ -4617,13 +4617,13 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E47" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G47" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H47" t="s">
         <v>787</v>
@@ -4634,13 +4634,13 @@
         <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E48" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G48" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H48" t="s">
         <v>788</v>
@@ -4654,10 +4654,10 @@
         <v>460</v>
       </c>
       <c r="E49" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G49" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H49" t="s">
         <v>789</v>
@@ -4671,10 +4671,10 @@
         <v>461</v>
       </c>
       <c r="E50" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G50" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H50" t="s">
         <v>790</v>
@@ -4688,7 +4688,7 @@
         <v>462</v>
       </c>
       <c r="E51" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G51" t="s">
         <v>748</v>
@@ -4705,10 +4705,10 @@
         <v>463</v>
       </c>
       <c r="E52" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G52" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H52" t="s">
         <v>792</v>
@@ -4722,10 +4722,10 @@
         <v>454</v>
       </c>
       <c r="E53" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G53" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H53" t="s">
         <v>793</v>
@@ -4739,10 +4739,10 @@
         <v>464</v>
       </c>
       <c r="E54" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G54" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H54" t="s">
         <v>794</v>
@@ -4756,10 +4756,10 @@
         <v>465</v>
       </c>
       <c r="E55" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G55" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H55" t="s">
         <v>795</v>
@@ -4776,7 +4776,7 @@
         <v>721</v>
       </c>
       <c r="G56" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H56" t="s">
         <v>796</v>
@@ -4793,7 +4793,7 @@
         <v>721</v>
       </c>
       <c r="G57" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H57" t="s">
         <v>797</v>
@@ -4804,13 +4804,13 @@
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E58" t="s">
         <v>721</v>
       </c>
       <c r="G58" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H58" t="s">
         <v>798</v>
@@ -4821,13 +4821,13 @@
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E59" t="s">
         <v>721</v>
       </c>
       <c r="G59" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H59" t="s">
         <v>799</v>
@@ -4844,7 +4844,7 @@
         <v>721</v>
       </c>
       <c r="G60" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H60" t="s">
         <v>800</v>
@@ -4861,7 +4861,7 @@
         <v>721</v>
       </c>
       <c r="G61" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H61" t="s">
         <v>801</v>
@@ -4878,7 +4878,7 @@
         <v>721</v>
       </c>
       <c r="G62" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H62" t="s">
         <v>802</v>
@@ -4895,7 +4895,7 @@
         <v>427</v>
       </c>
       <c r="D63" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E63" t="s">
         <v>721</v>
@@ -4904,10 +4904,10 @@
         <v>741</v>
       </c>
       <c r="G63" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H63" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4915,13 +4915,13 @@
         <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E64" t="s">
         <v>721</v>
       </c>
       <c r="G64" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H64" t="s">
         <v>803</v>
@@ -4938,7 +4938,7 @@
         <v>721</v>
       </c>
       <c r="G65" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H65" t="s">
         <v>804</v>
@@ -4955,7 +4955,7 @@
         <v>721</v>
       </c>
       <c r="G66" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H66" t="s">
         <v>805</v>
@@ -4966,13 +4966,13 @@
         <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E67" t="s">
         <v>721</v>
       </c>
       <c r="G67" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H67" t="s">
         <v>806</v>
@@ -4983,13 +4983,13 @@
         <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E68" t="s">
         <v>721</v>
       </c>
       <c r="G68" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H68" t="s">
         <v>807</v>
@@ -5006,7 +5006,7 @@
         <v>721</v>
       </c>
       <c r="G69" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H69" t="s">
         <v>808</v>
@@ -5023,7 +5023,7 @@
         <v>721</v>
       </c>
       <c r="G70" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H70" t="s">
         <v>809</v>
@@ -5034,13 +5034,13 @@
         <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E71" t="s">
         <v>721</v>
       </c>
       <c r="G71" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H71" t="s">
         <v>810</v>
@@ -5057,7 +5057,7 @@
         <v>721</v>
       </c>
       <c r="G72" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H72" t="s">
         <v>811</v>
@@ -5074,7 +5074,7 @@
         <v>427</v>
       </c>
       <c r="D73" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E73" t="s">
         <v>721</v>
@@ -5083,10 +5083,10 @@
         <v>741</v>
       </c>
       <c r="G73" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H73" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5100,7 +5100,7 @@
         <v>721</v>
       </c>
       <c r="G74" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H74" t="s">
         <v>812</v>
@@ -5126,10 +5126,10 @@
         <v>741</v>
       </c>
       <c r="G75" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H75" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5143,7 +5143,7 @@
         <v>722</v>
       </c>
       <c r="G76" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H76" t="s">
         <v>813</v>
@@ -5160,7 +5160,7 @@
         <v>722</v>
       </c>
       <c r="G77" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H77" t="s">
         <v>814</v>
@@ -5177,7 +5177,7 @@
         <v>722</v>
       </c>
       <c r="G78" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H78" t="s">
         <v>815</v>
@@ -5194,7 +5194,7 @@
         <v>722</v>
       </c>
       <c r="G79" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H79" t="s">
         <v>816</v>
@@ -5211,7 +5211,7 @@
         <v>722</v>
       </c>
       <c r="G80" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H80" t="s">
         <v>817</v>
@@ -5228,7 +5228,7 @@
         <v>722</v>
       </c>
       <c r="G81" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H81" t="s">
         <v>818</v>
@@ -5239,13 +5239,13 @@
         <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E82" t="s">
         <v>722</v>
       </c>
       <c r="G82" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H82" t="s">
         <v>819</v>
@@ -5262,7 +5262,7 @@
         <v>722</v>
       </c>
       <c r="G83" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H83" t="s">
         <v>820</v>
@@ -5273,13 +5273,13 @@
         <v>90</v>
       </c>
       <c r="D84" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E84" t="s">
         <v>722</v>
       </c>
       <c r="G84" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H84" t="s">
         <v>821</v>
@@ -5296,7 +5296,7 @@
         <v>722</v>
       </c>
       <c r="G85" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H85" t="s">
         <v>822</v>
@@ -5313,7 +5313,7 @@
         <v>722</v>
       </c>
       <c r="G86" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H86" t="s">
         <v>823</v>
@@ -5330,7 +5330,7 @@
         <v>722</v>
       </c>
       <c r="G87" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H87" t="s">
         <v>824</v>
@@ -5347,7 +5347,7 @@
         <v>722</v>
       </c>
       <c r="G88" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H88" t="s">
         <v>825</v>
@@ -5364,7 +5364,7 @@
         <v>722</v>
       </c>
       <c r="G89" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H89" t="s">
         <v>826</v>
@@ -5381,7 +5381,7 @@
         <v>722</v>
       </c>
       <c r="G90" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H90" t="s">
         <v>827</v>
@@ -5398,7 +5398,7 @@
         <v>722</v>
       </c>
       <c r="G91" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H91" t="s">
         <v>828</v>
@@ -5435,7 +5435,7 @@
         <v>722</v>
       </c>
       <c r="G93" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H93" t="s">
         <v>830</v>
@@ -5452,7 +5452,7 @@
         <v>723</v>
       </c>
       <c r="G94" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H94" t="s">
         <v>831</v>
@@ -5469,7 +5469,7 @@
         <v>723</v>
       </c>
       <c r="G95" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H95" t="s">
         <v>832</v>
@@ -5486,7 +5486,7 @@
         <v>723</v>
       </c>
       <c r="G96" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H96" t="s">
         <v>833</v>
@@ -5503,7 +5503,7 @@
         <v>723</v>
       </c>
       <c r="G97" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H97" t="s">
         <v>834</v>
@@ -5520,7 +5520,7 @@
         <v>723</v>
       </c>
       <c r="G98" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H98" t="s">
         <v>835</v>
@@ -5537,7 +5537,7 @@
         <v>723</v>
       </c>
       <c r="G99" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H99" t="s">
         <v>836</v>
@@ -5554,7 +5554,7 @@
         <v>723</v>
       </c>
       <c r="G100" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H100" t="s">
         <v>837</v>
@@ -5588,7 +5588,7 @@
         <v>723</v>
       </c>
       <c r="G102" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H102" t="s">
         <v>839</v>
@@ -5605,7 +5605,7 @@
         <v>723</v>
       </c>
       <c r="G103" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H103" t="s">
         <v>840</v>
@@ -5639,7 +5639,7 @@
         <v>723</v>
       </c>
       <c r="G105" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H105" t="s">
         <v>842</v>
@@ -5656,7 +5656,7 @@
         <v>723</v>
       </c>
       <c r="G106" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H106" t="s">
         <v>843</v>
@@ -5690,7 +5690,7 @@
         <v>427</v>
       </c>
       <c r="D108" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E108" t="s">
         <v>723</v>
@@ -5699,10 +5699,10 @@
         <v>741</v>
       </c>
       <c r="G108" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H108" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5716,7 +5716,7 @@
         <v>723</v>
       </c>
       <c r="G109" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H109" t="s">
         <v>845</v>
@@ -5767,7 +5767,7 @@
         <v>723</v>
       </c>
       <c r="G112" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H112" t="s">
         <v>848</v>
@@ -5778,7 +5778,7 @@
         <v>119</v>
       </c>
       <c r="D113" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E113" t="s">
         <v>723</v>
@@ -5818,7 +5818,7 @@
         <v>723</v>
       </c>
       <c r="G115" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H115" t="s">
         <v>851</v>
@@ -5835,7 +5835,7 @@
         <v>724</v>
       </c>
       <c r="G116" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H116" t="s">
         <v>852</v>
@@ -5852,7 +5852,7 @@
         <v>724</v>
       </c>
       <c r="G117" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H117" t="s">
         <v>853</v>
@@ -5886,7 +5886,7 @@
         <v>427</v>
       </c>
       <c r="D119" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E119" t="s">
         <v>724</v>
@@ -5895,10 +5895,10 @@
         <v>741</v>
       </c>
       <c r="G119" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H119" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5912,7 +5912,7 @@
         <v>724</v>
       </c>
       <c r="G120" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H120" t="s">
         <v>855</v>
@@ -5923,13 +5923,13 @@
         <v>127</v>
       </c>
       <c r="D121" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E121" t="s">
         <v>724</v>
       </c>
       <c r="G121" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H121" t="s">
         <v>856</v>
@@ -5946,7 +5946,7 @@
         <v>724</v>
       </c>
       <c r="G122" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H122" t="s">
         <v>857</v>
@@ -5963,7 +5963,7 @@
         <v>724</v>
       </c>
       <c r="G123" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H123" t="s">
         <v>858</v>
@@ -6031,7 +6031,7 @@
         <v>427</v>
       </c>
       <c r="D127" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E127" t="s">
         <v>724</v>
@@ -6040,10 +6040,10 @@
         <v>741</v>
       </c>
       <c r="G127" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H127" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6051,13 +6051,13 @@
         <v>134</v>
       </c>
       <c r="D128" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E128" t="s">
         <v>724</v>
       </c>
       <c r="G128" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H128" t="s">
         <v>862</v>
@@ -6108,7 +6108,7 @@
         <v>726</v>
       </c>
       <c r="G131" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H131" t="s">
         <v>865</v>
@@ -6125,7 +6125,7 @@
         <v>726</v>
       </c>
       <c r="G132" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H132" t="s">
         <v>866</v>
@@ -6142,7 +6142,7 @@
         <v>726</v>
       </c>
       <c r="G133" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H133" t="s">
         <v>867</v>
@@ -6153,13 +6153,13 @@
         <v>140</v>
       </c>
       <c r="D134" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E134" t="s">
         <v>726</v>
       </c>
       <c r="G134" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H134" t="s">
         <v>868</v>
@@ -6176,7 +6176,7 @@
         <v>726</v>
       </c>
       <c r="G135" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H135" t="s">
         <v>869</v>
@@ -6193,7 +6193,7 @@
         <v>726</v>
       </c>
       <c r="G136" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H136" t="s">
         <v>870</v>
@@ -6244,7 +6244,7 @@
         <v>726</v>
       </c>
       <c r="G139" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H139" t="s">
         <v>873</v>
@@ -6261,7 +6261,7 @@
         <v>726</v>
       </c>
       <c r="G140" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H140" t="s">
         <v>874</v>
@@ -6278,7 +6278,7 @@
         <v>726</v>
       </c>
       <c r="G141" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H141" t="s">
         <v>875</v>
@@ -6329,7 +6329,7 @@
         <v>726</v>
       </c>
       <c r="G144" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H144" t="s">
         <v>878</v>
@@ -6346,7 +6346,7 @@
         <v>726</v>
       </c>
       <c r="G145" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H145" t="s">
         <v>879</v>
@@ -6363,7 +6363,7 @@
         <v>726</v>
       </c>
       <c r="G146" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H146" t="s">
         <v>880</v>
@@ -6380,7 +6380,7 @@
         <v>726</v>
       </c>
       <c r="G147" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H147" t="s">
         <v>881</v>
@@ -6414,7 +6414,7 @@
         <v>726</v>
       </c>
       <c r="G149" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H149" t="s">
         <v>883</v>
@@ -6448,7 +6448,7 @@
         <v>726</v>
       </c>
       <c r="G151" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H151" t="s">
         <v>885</v>
@@ -6465,7 +6465,7 @@
         <v>727</v>
       </c>
       <c r="G152" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H152" t="s">
         <v>886</v>
@@ -6482,7 +6482,7 @@
         <v>727</v>
       </c>
       <c r="G153" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H153" t="s">
         <v>887</v>
@@ -6499,7 +6499,7 @@
         <v>727</v>
       </c>
       <c r="G154" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H154" t="s">
         <v>888</v>
@@ -6516,7 +6516,7 @@
         <v>727</v>
       </c>
       <c r="G155" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H155" t="s">
         <v>889</v>
@@ -6533,7 +6533,7 @@
         <v>727</v>
       </c>
       <c r="G156" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H156" t="s">
         <v>890</v>
@@ -6550,7 +6550,7 @@
         <v>727</v>
       </c>
       <c r="G157" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H157" t="s">
         <v>891</v>
@@ -6567,7 +6567,7 @@
         <v>727</v>
       </c>
       <c r="G158" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H158" t="s">
         <v>892</v>
@@ -6584,7 +6584,7 @@
         <v>727</v>
       </c>
       <c r="G159" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H159" t="s">
         <v>893</v>
@@ -6601,7 +6601,7 @@
         <v>727</v>
       </c>
       <c r="G160" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H160" t="s">
         <v>894</v>
@@ -6630,7 +6630,7 @@
         <v>748</v>
       </c>
       <c r="H161" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6644,7 +6644,7 @@
         <v>727</v>
       </c>
       <c r="G162" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H162" t="s">
         <v>895</v>
@@ -6695,7 +6695,7 @@
         <v>727</v>
       </c>
       <c r="G165" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H165" t="s">
         <v>898</v>
@@ -6763,7 +6763,7 @@
         <v>727</v>
       </c>
       <c r="G169" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H169" t="s">
         <v>902</v>
@@ -6843,7 +6843,7 @@
         <v>748</v>
       </c>
       <c r="H173" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6857,7 +6857,7 @@
         <v>728</v>
       </c>
       <c r="G174" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H174" t="s">
         <v>906</v>
@@ -6874,7 +6874,7 @@
         <v>728</v>
       </c>
       <c r="G175" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H175" t="s">
         <v>907</v>
@@ -6905,13 +6905,13 @@
         <v>426</v>
       </c>
       <c r="D177" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E177" t="s">
         <v>723</v>
       </c>
       <c r="G177" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H177" t="s">
         <v>909</v>
@@ -6928,7 +6928,7 @@
         <v>728</v>
       </c>
       <c r="G178" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H178" t="s">
         <v>910</v>
@@ -6979,7 +6979,7 @@
         <v>728</v>
       </c>
       <c r="G181" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H181" t="s">
         <v>913</v>
@@ -6996,7 +6996,7 @@
         <v>728</v>
       </c>
       <c r="G182" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H182" t="s">
         <v>914</v>
@@ -7025,7 +7025,7 @@
         <v>748</v>
       </c>
       <c r="H183" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7056,7 +7056,7 @@
         <v>728</v>
       </c>
       <c r="G185" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H185" t="s">
         <v>916</v>
@@ -7158,7 +7158,7 @@
         <v>728</v>
       </c>
       <c r="G191" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H191" t="s">
         <v>922</v>
@@ -7175,7 +7175,7 @@
         <v>729</v>
       </c>
       <c r="G192" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H192" t="s">
         <v>923</v>
@@ -7192,7 +7192,7 @@
         <v>729</v>
       </c>
       <c r="G193" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H193" t="s">
         <v>924</v>
@@ -7209,7 +7209,7 @@
         <v>729</v>
       </c>
       <c r="G194" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H194" t="s">
         <v>925</v>
@@ -7226,7 +7226,7 @@
         <v>729</v>
       </c>
       <c r="G195" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H195" t="s">
         <v>926</v>
@@ -7243,7 +7243,7 @@
         <v>729</v>
       </c>
       <c r="G196" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H196" t="s">
         <v>927</v>
@@ -7260,7 +7260,7 @@
         <v>729</v>
       </c>
       <c r="G197" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H197" t="s">
         <v>928</v>
@@ -7311,7 +7311,7 @@
         <v>729</v>
       </c>
       <c r="G200" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H200" t="s">
         <v>931</v>
@@ -7362,7 +7362,7 @@
         <v>729</v>
       </c>
       <c r="G203" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H203" t="s">
         <v>934</v>
@@ -7396,7 +7396,7 @@
         <v>729</v>
       </c>
       <c r="G205" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H205" t="s">
         <v>936</v>
@@ -7413,7 +7413,7 @@
         <v>729</v>
       </c>
       <c r="G206" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H206" t="s">
         <v>937</v>
@@ -7532,7 +7532,7 @@
         <v>729</v>
       </c>
       <c r="G213" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H213" t="s">
         <v>944</v>
@@ -7566,7 +7566,7 @@
         <v>729</v>
       </c>
       <c r="G215" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H215" t="s">
         <v>946</v>
@@ -7583,7 +7583,7 @@
         <v>730</v>
       </c>
       <c r="G216" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H216" t="s">
         <v>947</v>
@@ -7593,17 +7593,26 @@
       <c r="A217" t="s">
         <v>223</v>
       </c>
+      <c r="B217" t="s">
+        <v>426</v>
+      </c>
+      <c r="C217" t="s">
+        <v>427</v>
+      </c>
       <c r="D217" t="s">
         <v>577</v>
       </c>
       <c r="E217" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="F217" t="s">
+        <v>741</v>
       </c>
       <c r="G217" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="H217" t="s">
-        <v>948</v>
+        <v>753</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7614,13 +7623,13 @@
         <v>578</v>
       </c>
       <c r="E218" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="G218" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="H218" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7631,39 +7640,30 @@
         <v>579</v>
       </c>
       <c r="E219" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="G219" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H219" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>226</v>
       </c>
-      <c r="B220" t="s">
-        <v>426</v>
-      </c>
-      <c r="C220" t="s">
-        <v>427</v>
-      </c>
       <c r="D220" t="s">
         <v>580</v>
       </c>
       <c r="E220" t="s">
-        <v>731</v>
-      </c>
-      <c r="F220" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
       <c r="G220" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H220" t="s">
-        <v>752</v>
+        <v>950</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7674,10 +7674,10 @@
         <v>581</v>
       </c>
       <c r="E221" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G221" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H221" t="s">
         <v>951</v>
@@ -7688,13 +7688,13 @@
         <v>228</v>
       </c>
       <c r="D222" t="s">
-        <v>582</v>
+        <v>495</v>
       </c>
       <c r="E222" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G222" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="H222" t="s">
         <v>952</v>
@@ -7705,13 +7705,13 @@
         <v>229</v>
       </c>
       <c r="D223" t="s">
-        <v>583</v>
+        <v>496</v>
       </c>
       <c r="E223" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G223" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H223" t="s">
         <v>953</v>
@@ -7722,10 +7722,10 @@
         <v>230</v>
       </c>
       <c r="D224" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E224" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="G224" t="s">
         <v>749</v>
@@ -7739,13 +7739,13 @@
         <v>231</v>
       </c>
       <c r="D225" t="s">
-        <v>495</v>
+        <v>583</v>
       </c>
       <c r="E225" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="G225" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H225" t="s">
         <v>955</v>
@@ -7756,13 +7756,13 @@
         <v>232</v>
       </c>
       <c r="D226" t="s">
-        <v>496</v>
+        <v>584</v>
       </c>
       <c r="E226" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="G226" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="H226" t="s">
         <v>956</v>
@@ -7830,7 +7830,7 @@
         <v>730</v>
       </c>
       <c r="G230" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H230" t="s">
         <v>960</v>
@@ -7966,7 +7966,7 @@
         <v>730</v>
       </c>
       <c r="G238" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H238" t="s">
         <v>968</v>
@@ -8026,10 +8026,10 @@
         <v>743</v>
       </c>
       <c r="G241" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H241" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8055,7 +8055,7 @@
         <v>749</v>
       </c>
       <c r="H242" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8069,7 +8069,7 @@
         <v>730</v>
       </c>
       <c r="G243" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H243" t="s">
         <v>971</v>
@@ -8086,7 +8086,7 @@
         <v>730</v>
       </c>
       <c r="G244" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H244" t="s">
         <v>972</v>
@@ -8106,7 +8106,7 @@
         <v>749</v>
       </c>
       <c r="H245" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8154,7 +8154,7 @@
         <v>730</v>
       </c>
       <c r="G248" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H248" t="s">
         <v>975</v>
@@ -8200,7 +8200,7 @@
         <v>748</v>
       </c>
       <c r="H250" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8231,7 +8231,7 @@
         <v>732</v>
       </c>
       <c r="G252" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H252" t="s">
         <v>978</v>
@@ -8265,7 +8265,7 @@
         <v>732</v>
       </c>
       <c r="G254" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H254" t="s">
         <v>980</v>
@@ -8282,7 +8282,7 @@
         <v>732</v>
       </c>
       <c r="G255" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H255" t="s">
         <v>981</v>
@@ -8299,7 +8299,7 @@
         <v>732</v>
       </c>
       <c r="G256" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H256" t="s">
         <v>982</v>
@@ -8328,7 +8328,7 @@
         <v>748</v>
       </c>
       <c r="H257" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8342,7 +8342,7 @@
         <v>732</v>
       </c>
       <c r="G258" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H258" t="s">
         <v>983</v>
@@ -8371,7 +8371,7 @@
         <v>748</v>
       </c>
       <c r="H259" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8385,7 +8385,7 @@
         <v>732</v>
       </c>
       <c r="G260" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H260" t="s">
         <v>984</v>
@@ -8453,7 +8453,7 @@
         <v>733</v>
       </c>
       <c r="G264" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H264" t="s">
         <v>988</v>
@@ -8470,7 +8470,7 @@
         <v>733</v>
       </c>
       <c r="G265" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H265" t="s">
         <v>989</v>
@@ -8487,7 +8487,7 @@
         <v>733</v>
       </c>
       <c r="G266" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H266" t="s">
         <v>990</v>
@@ -8504,7 +8504,7 @@
         <v>733</v>
       </c>
       <c r="G267" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H267" t="s">
         <v>991</v>
@@ -8521,7 +8521,7 @@
         <v>733</v>
       </c>
       <c r="G268" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H268" t="s">
         <v>992</v>
@@ -8538,7 +8538,7 @@
         <v>734</v>
       </c>
       <c r="G269" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H269" t="s">
         <v>993</v>
@@ -8640,7 +8640,7 @@
         <v>734</v>
       </c>
       <c r="G275" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H275" t="s">
         <v>999</v>
@@ -8657,7 +8657,7 @@
         <v>734</v>
       </c>
       <c r="G276" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H276" t="s">
         <v>1000</v>
@@ -8708,7 +8708,7 @@
         <v>734</v>
       </c>
       <c r="G279" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H279" t="s">
         <v>1003</v>
@@ -8813,7 +8813,7 @@
         <v>748</v>
       </c>
       <c r="H285" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8873,7 +8873,7 @@
         <v>749</v>
       </c>
       <c r="H288" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8899,7 +8899,7 @@
         <v>749</v>
       </c>
       <c r="H289" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9146,10 +9146,10 @@
         <v>741</v>
       </c>
       <c r="G303" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H303" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9163,7 +9163,7 @@
         <v>736</v>
       </c>
       <c r="G304" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H304" t="s">
         <v>1024</v>
@@ -9192,7 +9192,7 @@
         <v>749</v>
       </c>
       <c r="H305" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9218,7 +9218,7 @@
         <v>749</v>
       </c>
       <c r="H306" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9249,7 +9249,7 @@
         <v>736</v>
       </c>
       <c r="G308" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H308" t="s">
         <v>1026</v>
@@ -9300,7 +9300,7 @@
         <v>736</v>
       </c>
       <c r="G311" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H311" t="s">
         <v>1029</v>
@@ -9329,7 +9329,7 @@
         <v>748</v>
       </c>
       <c r="H312" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9369,10 +9369,10 @@
         <v>741</v>
       </c>
       <c r="G314" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H314" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9386,7 +9386,7 @@
         <v>736</v>
       </c>
       <c r="G315" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H315" t="s">
         <v>1031</v>
@@ -9432,7 +9432,7 @@
         <v>749</v>
       </c>
       <c r="H317" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9446,7 +9446,7 @@
         <v>736</v>
       </c>
       <c r="G318" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H318" t="s">
         <v>1033</v>
@@ -9475,7 +9475,7 @@
         <v>749</v>
       </c>
       <c r="H319" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9506,7 +9506,7 @@
         <v>736</v>
       </c>
       <c r="G321" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H321" t="s">
         <v>1035</v>
@@ -9535,7 +9535,7 @@
         <v>748</v>
       </c>
       <c r="H322" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9549,7 +9549,7 @@
         <v>736</v>
       </c>
       <c r="G323" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H323" t="s">
         <v>1036</v>
@@ -9595,7 +9595,7 @@
         <v>749</v>
       </c>
       <c r="H325" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9621,7 +9621,7 @@
         <v>749</v>
       </c>
       <c r="H326" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9647,7 +9647,7 @@
         <v>749</v>
       </c>
       <c r="H327" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9661,7 +9661,7 @@
         <v>736</v>
       </c>
       <c r="G328" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H328" t="s">
         <v>1038</v>
@@ -9763,7 +9763,7 @@
         <v>736</v>
       </c>
       <c r="G334" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H334" t="s">
         <v>1043</v>
@@ -9882,7 +9882,7 @@
         <v>737</v>
       </c>
       <c r="G341" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H341" t="s">
         <v>1050</v>
@@ -9908,10 +9908,10 @@
         <v>741</v>
       </c>
       <c r="G342" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H342" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9925,7 +9925,7 @@
         <v>737</v>
       </c>
       <c r="G343" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H343" t="s">
         <v>1051</v>
@@ -10010,7 +10010,7 @@
         <v>737</v>
       </c>
       <c r="G348" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H348" t="s">
         <v>1056</v>
@@ -10036,10 +10036,10 @@
         <v>741</v>
       </c>
       <c r="G349" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H349" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10062,10 +10062,10 @@
         <v>741</v>
       </c>
       <c r="G350" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H350" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10079,7 +10079,7 @@
         <v>737</v>
       </c>
       <c r="G351" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H351" t="s">
         <v>1057</v>
@@ -10249,7 +10249,7 @@
         <v>738</v>
       </c>
       <c r="G361" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H361" t="s">
         <v>1026</v>
@@ -10326,10 +10326,10 @@
         <v>741</v>
       </c>
       <c r="G365" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H365" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10343,7 +10343,7 @@
         <v>738</v>
       </c>
       <c r="G366" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H366" t="s">
         <v>1070</v>
@@ -10394,7 +10394,7 @@
         <v>738</v>
       </c>
       <c r="G369" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H369" t="s">
         <v>1073</v>
@@ -10632,7 +10632,7 @@
         <v>739</v>
       </c>
       <c r="G383" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H383" t="s">
         <v>1087</v>
@@ -10717,7 +10717,7 @@
         <v>739</v>
       </c>
       <c r="G388" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H388" t="s">
         <v>1092</v>
@@ -10734,7 +10734,7 @@
         <v>739</v>
       </c>
       <c r="G389" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H389" t="s">
         <v>1093</v>
@@ -10751,7 +10751,7 @@
         <v>739</v>
       </c>
       <c r="G390" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H390" t="s">
         <v>1094</v>
@@ -10768,7 +10768,7 @@
         <v>739</v>
       </c>
       <c r="G391" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H391" t="s">
         <v>1095</v>
@@ -10785,7 +10785,7 @@
         <v>739</v>
       </c>
       <c r="G392" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H392" t="s">
         <v>1096</v>
@@ -10802,7 +10802,7 @@
         <v>739</v>
       </c>
       <c r="G393" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H393" t="s">
         <v>1097</v>
@@ -10819,7 +10819,7 @@
         <v>739</v>
       </c>
       <c r="G394" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H394" t="s">
         <v>1098</v>
@@ -10845,10 +10845,10 @@
         <v>741</v>
       </c>
       <c r="G395" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H395" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10862,7 +10862,7 @@
         <v>739</v>
       </c>
       <c r="G396" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H396" t="s">
         <v>1099</v>
@@ -10879,7 +10879,7 @@
         <v>739</v>
       </c>
       <c r="G397" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H397" t="s">
         <v>1100</v>
@@ -10925,7 +10925,7 @@
         <v>748</v>
       </c>
       <c r="H399" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10951,7 +10951,7 @@
         <v>748</v>
       </c>
       <c r="H400" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10965,7 +10965,7 @@
         <v>740</v>
       </c>
       <c r="G401" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H401" t="s">
         <v>1102</v>
@@ -10982,7 +10982,7 @@
         <v>731</v>
       </c>
       <c r="G402" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H402" t="s">
         <v>1103</v>
@@ -11016,7 +11016,7 @@
         <v>731</v>
       </c>
       <c r="G404" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H404" t="s">
         <v>1105</v>
@@ -11033,7 +11033,7 @@
         <v>731</v>
       </c>
       <c r="G405" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H405" t="s">
         <v>1106</v>
@@ -11050,7 +11050,7 @@
         <v>731</v>
       </c>
       <c r="G406" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H406" t="s">
         <v>1107</v>
@@ -11067,7 +11067,7 @@
         <v>731</v>
       </c>
       <c r="G407" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H407" t="s">
         <v>1108</v>
@@ -11130,7 +11130,7 @@
         <v>749</v>
       </c>
       <c r="H410" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11161,7 +11161,7 @@
         <v>731</v>
       </c>
       <c r="G412" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H412" t="s">
         <v>1112</v>
@@ -11195,7 +11195,7 @@
         <v>731</v>
       </c>
       <c r="G414" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H414" t="s">
         <v>1114</v>
